--- a/cluster algorithm/Results_clusters=3/Cold_results.xlsx
+++ b/cluster algorithm/Results_clusters=3/Cold_results.xlsx
@@ -379,7058 +379,7058 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.4081017428673318</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B2">
-        <v>0.9834734294519247</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C2">
-        <v>0.01137412040010897</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D2">
-        <v>0.1573613667665744</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.2980554546595195</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B3">
-        <v>0.7182758350927767</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C3">
-        <v>0.008307042757003556</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D3">
-        <v>0.1149282367380187</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.2833879567747957</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B4">
-        <v>0.6829290258759937</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C4">
-        <v>0.007898247916439921</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D4">
-        <v>0.1092725453460407</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.2755863284074218</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B5">
-        <v>0.6641280912074422</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C5">
-        <v>0.007680810324176895</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D5">
-        <v>0.1062642883994539</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.2246056974504523</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B6">
-        <v>0.5412712378879675</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C6">
-        <v>0.006259939561645998</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D6">
-        <v>0.0866064900532728</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.1926612579869058</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B7">
-        <v>0.464289191179712</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C7">
-        <v>0.005369622607791462</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D7">
-        <v>0.07428892282296103</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.1691708078142581</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B8">
-        <v>0.4076801862086805</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C8">
-        <v>0.004714925064381771</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D8">
-        <v>0.06523115865082507</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.219868040844728</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B9">
-        <v>0.5298540864765071</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C9">
-        <v>0.006127897301132062</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D9">
-        <v>0.08477968060739935</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.3473624007724141</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B10">
-        <v>0.8370993202578811</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C10">
-        <v>0.009681266590769597</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D10">
-        <v>0.1339406731390396</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.5331844919568932</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B11">
-        <v>1.284906987044881</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C11">
-        <v>0.01486027617617924</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D11">
-        <v>0.2055924579090903</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.7146912949625195</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B12">
-        <v>1.722315356748483</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C12">
-        <v>0.01991901524531374</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D12">
-        <v>0.2755802957402115</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.8658096186374693</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B13">
-        <v>2.086491346278485</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C13">
-        <v>0.02413080320795493</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D13">
-        <v>0.3338505344063921</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1.00994980500962</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B14">
-        <v>2.433850910139358</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C14">
-        <v>0.0281481049297561</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D14">
-        <v>0.3894300489023252</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1.085602426349326</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B15">
-        <v>2.616164130448675</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C15">
-        <v>0.03025660370179245</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D15">
-        <v>0.4186012056090982</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1.133850431975235</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B16">
-        <v>2.732435703374925</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C16">
-        <v>0.0316013140213282</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D16">
-        <v>0.4372053214742016</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1.214497405132241</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B17">
-        <v>2.926784677991833</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C17">
-        <v>0.03384900935374032</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D17">
-        <v>0.4683022676239744</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1.242634489914332</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B18">
-        <v>2.994591482910129</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C18">
-        <v>0.0346332123021791</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D18">
-        <v>0.4791517437546756</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>1.239372685296708</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B19">
-        <v>2.986730947566766</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C19">
-        <v>0.03454230321127001</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D19">
-        <v>0.4778940131967307</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1.180841664258185</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B20">
-        <v>2.845678611976049</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C20">
-        <v>0.03291099706747366</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D20">
-        <v>0.455324833746156</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1.108194152324526</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B21">
-        <v>2.670607324113966</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C21">
-        <v>0.03088625308648459</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D21">
-        <v>0.4273124276002017</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.9184475636612448</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B22">
-        <v>2.213342116255871</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C22">
-        <v>0.02559786463265797</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D22">
-        <v>0.3541473822329348</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.7713611302386485</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B23">
-        <v>1.858882470757619</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C23">
-        <v>0.02149844866051132</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D23">
-        <v>0.2974318141160772</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.559813565110204</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B24">
-        <v>1.349079675240742</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C24">
-        <v>0.01560244964023016</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D24">
-        <v>0.2158604546044495</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.4325224949642479</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B25">
-        <v>1.042324344044458</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C25">
-        <v>0.01205474619861686</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D25">
-        <v>0.1667778492849735</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.3554152674256085</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B26">
-        <v>0.8565057073237426</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C26">
-        <v>0.009905706394030206</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D26">
-        <v>0.1370458059278196</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.3227329019680118</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B27">
-        <v>0.7777453525814382</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C27">
-        <v>0.008994822855373247</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D27">
-        <v>0.1244436992535436</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.250363331035097</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B28">
-        <v>0.6033438672721839</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C28">
-        <v>0.00697782531130054</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D28">
-        <v>0.09653846534226335</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.1849718974049804</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B29">
-        <v>0.4457588076320557</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C29">
-        <v>0.005155314008067829</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D29">
-        <v>0.07132395560123032</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.1845440720523528</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B30">
-        <v>0.4447278028051739</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C30">
-        <v>0.005143390174964802</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D30">
-        <v>0.07115898893935368</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.1584174754706829</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B31">
-        <v>0.3817660194039331</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C31">
-        <v>0.004415221132909047</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D31">
-        <v>0.06108474392838097</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.1309272946863612</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B32">
-        <v>0.31551817105549</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C32">
-        <v>0.003649047913787843</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D32">
-        <v>0.05048470975433586</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.1727160103583816</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B33">
-        <v>0.4162236746036915</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C33">
-        <v>0.004813732681071469</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D33">
-        <v>0.06659816559837679</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.2469303962764221</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B34">
-        <v>0.5950709299980683</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C34">
-        <v>0.006882146687150238</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D34">
-        <v>0.09521474811956782</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.4885241804534413</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B35">
-        <v>1.177281301827041</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C35">
-        <v>0.0136155577474423</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D35">
-        <v>0.1883717334666348</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.7120976401318314</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B36">
-        <v>1.716064977631674</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C36">
-        <v>0.0198467280207768</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D36">
-        <v>0.2745801993764709</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.8807653894605908</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B37">
-        <v>2.122532856707157</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C37">
-        <v>0.02454763244476101</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D37">
-        <v>0.3396173819607264</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1.004441480855308</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B38">
-        <v>2.420576547700934</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C38">
-        <v>0.02799458355125433</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D38">
-        <v>0.3873060750828906</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1.071212287551488</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B39">
-        <v>2.581485721446144</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C39">
-        <v>0.02985553907974281</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D39">
-        <v>0.4130524620696113</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1.138528644311499</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B40">
-        <v>2.743709601637952</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C40">
-        <v>0.03173169952273795</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D40">
-        <v>0.4390092095979977</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1.196738650857087</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B41">
-        <v>2.883988333023862</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C41">
-        <v>0.03335405873710641</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D41">
-        <v>0.4614546079566189</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>1.236880384399955</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B42">
-        <v>2.980724818573212</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C42">
-        <v>0.03447284080154397</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D42">
-        <v>0.4769329982479805</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>1.218951081897608</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B43">
-        <v>2.937517474013067</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C43">
-        <v>0.03397313687007126</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D43">
-        <v>0.4700195762980578</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1.13060929123292</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B44">
-        <v>2.724624965349685</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C44">
-        <v>0.03151098084907129</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D44">
-        <v>0.4359555587716217</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>1.09339255895133</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B45">
-        <v>2.634937361781012</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C45">
-        <v>0.03047372089792463</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D45">
-        <v>0.4216050298636365</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.980635473115482</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B46">
-        <v>2.363207089023916</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C46">
-        <v>0.02733109116728101</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D46">
-        <v>0.3781266339737342</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.8428586796890396</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B47">
-        <v>2.031182494916652</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C47">
-        <v>0.02349114227178527</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D47">
-        <v>0.3250008022388057</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.693055991712652</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B48">
-        <v>1.670177020521635</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C48">
-        <v>0.01931602212323619</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D48">
-        <v>0.2672378641056687</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.5720105898012002</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B49">
-        <v>1.378472957459248</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C49">
-        <v>0.0159423904265247</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D49">
-        <v>0.2205635476674085</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.5473009828520286</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B50">
-        <v>1.318925939316248</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C50">
-        <v>0.01525371401337198</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D50">
-        <v>0.2110356846044699</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.4752148098456132</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B51">
-        <v>1.145207407058642</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C51">
-        <v>0.01324461499507988</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D51">
-        <v>0.1832397270827965</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>0.3425925845260105</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B52">
-        <v>0.8256046681920823</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C52">
-        <v>0.009548328015472634</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D52">
-        <v>0.1321014631457525</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>0.3716708850838815</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B53">
-        <v>0.8956796837295188</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C53">
-        <v>0.01035876339673808</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D53">
-        <v>0.1433138659325824</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>0.4233305796792986</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B54">
-        <v>1.020172994273185</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C54">
-        <v>0.01179856020336958</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D54">
-        <v>0.1632335067828332</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>0.3387906867703105</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B55">
-        <v>0.8164425769009424</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C55">
-        <v>0.009442366098921122</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D55">
-        <v>0.1306354762010748</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>0.2764632249018437</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B56">
-        <v>0.6662413005179055</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C56">
-        <v>0.007705250127437503</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D56">
-        <v>0.1066024139607552</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>0.305429257674266</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B57">
-        <v>0.7360457649344464</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C57">
-        <v>0.008512556516163556</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D57">
-        <v>0.1177715270227289</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>0.3945089743330045</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B58">
-        <v>0.9507165816318779</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C58">
-        <v>0.01099527912196596</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D58">
-        <v>0.1521200839931294</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>0.5632732025838018</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B59">
-        <v>1.357416962670376</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C59">
-        <v>0.01569887249029925</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D59">
-        <v>0.2171944682196258</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>0.695638732691828</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B60">
-        <v>1.676401098640806</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C60">
-        <v>0.01938800517004468</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D60">
-        <v>0.2682337521595439</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>0.8542109675262933</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B61">
-        <v>2.058540068479034</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C61">
-        <v>0.02380753956960223</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D61">
-        <v>0.329378170287877</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>0.932933017553405</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B62">
-        <v>2.248250222544262</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C62">
-        <v>0.02600158576225192</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D62">
-        <v>0.3597328786502965</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>1.042262625556334</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B63">
-        <v>2.511720708526061</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C63">
-        <v>0.02904868895760947</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D63">
-        <v>0.401889661472436</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>1.146116650959489</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B64">
-        <v>2.761995735062352</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C64">
-        <v>0.03194318330765066</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D64">
-        <v>0.4419350954047378</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>1.162773391255466</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B65">
-        <v>2.80213636613949</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C65">
-        <v>0.03240741991754277</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D65">
-        <v>0.4483578256788963</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>1.237410145600377</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B66">
-        <v>2.982001475861929</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C66">
-        <v>0.03448760566786032</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D66">
-        <v>0.477137270707031</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>1.162105241468531</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B67">
-        <v>2.800526209912938</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C67">
-        <v>0.03238879805117064</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D67">
-        <v>0.4481001914846922</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>1.071100601679897</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B68">
-        <v>2.581216572663826</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C68">
-        <v>0.0298524263056058</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D68">
-        <v>0.4130093967269383</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>0.9697115925447133</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B69">
-        <v>2.336881922626992</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C69">
-        <v>0.02702663392096945</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D69">
-        <v>0.3739144569687226</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>0.8767765727004293</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B70">
-        <v>2.112920314327384</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C70">
-        <v>0.02443646094677798</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D70">
-        <v>0.3380793202686829</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>0.6097995748615466</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B71">
-        <v>1.469539617630038</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C71">
-        <v>0.01699559951809682</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D71">
-        <v>0.2351347335095403</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>0.5290882824231813</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B72">
-        <v>1.275035641704454</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C72">
-        <v>0.01474611155611865</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D72">
-        <v>0.2040129862649403</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>0.4263945514409483</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B73">
-        <v>1.027556777530276</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C73">
-        <v>0.01188395553511867</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D73">
-        <v>0.1644149542835466</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>0.3947656695445808</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B74">
-        <v>0.9513351845280065</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C74">
-        <v>0.01100243342182777</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D74">
-        <v>0.1522190639902553</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>0.2902805290070685</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B75">
-        <v>0.6995392505797439</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C75">
-        <v>0.008090349390659316</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D75">
-        <v>0.1119302761839127</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>0.2444332203677717</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B76">
-        <v>0.5890530528442733</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C76">
-        <v>0.00681254840696236</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D76">
-        <v>0.09425185339806806</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>0.1741062972759566</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B77">
-        <v>0.419574089706413</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C77">
-        <v>0.004852481084055712</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D77">
-        <v>0.06713425115393007</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>0.1571127536236334</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B78">
-        <v>0.3786218052665881</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C78">
-        <v>0.004378857496545411</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D78">
-        <v>0.06058165170520304</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>0.1339912664480109</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B79">
-        <v>0.3229019543125812</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C79">
-        <v>0.003734443245536934</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D79">
-        <v>0.05166615725504926</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>0.1273232297866353</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B80">
-        <v>0.3068328318506218</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C80">
-        <v>0.00354859975639633</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D80">
-        <v>0.04909500586688967</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>0.1589842713236822</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B81">
-        <v>0.3831319255072294</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C81">
-        <v>0.004431018184470261</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D81">
-        <v>0.06130329670759464</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>0.2758108639783189</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B82">
-        <v>0.6646691934492329</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C82">
-        <v>0.007687068309255684</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D82">
-        <v>0.1063508678491662</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>0.5041007344732661</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B83">
-        <v>1.214818821008625</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C83">
-        <v>0.01404968870604956</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D83">
-        <v>0.1943779509673277</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>0.7958462016169227</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B84">
-        <v>1.917888386658828</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C84">
-        <v>0.02218086708858525</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D84">
-        <v>0.3068730977293033</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>0.9734066794407211</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B85">
-        <v>2.345786613296057</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C85">
-        <v>0.02712961893384581</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D85">
-        <v>0.3753392583434769</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1.163533144952541</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B86">
-        <v>2.803967276168816</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C86">
-        <v>0.03242859485780213</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D86">
-        <v>0.4486507817425918</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1.283840620869942</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B87">
-        <v>3.093893031197154</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C87">
-        <v>0.0357816599697112</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D87">
-        <v>0.4950405587368877</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>1.349793393427302</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B88">
-        <v>3.252830846441759</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C88">
-        <v>0.0376198162356409</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D88">
-        <v>0.5204715171022016</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>1.383801726521115</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B89">
-        <v>3.334786614978108</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C89">
-        <v>0.03856765554771605</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D89">
-        <v>0.5335849082372037</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>1.42603951333493</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B90">
-        <v>3.436574323009892</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C90">
-        <v>0.03974485628515725</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D90">
-        <v>0.5498715229806693</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>1.399030563333082</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B91">
-        <v>3.371486179799367</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C91">
-        <v>0.03899209535097664</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D91">
-        <v>0.5394570482534623</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>1.339088009587817</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B92">
-        <v>3.227032229449231</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C92">
-        <v>0.03732144866714152</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D92">
-        <v>0.5163435910097864</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>1.269814570057231</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B93">
-        <v>3.060092028051405</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C93">
-        <v>0.03539074276960092</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D93">
-        <v>0.4896322051466332</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>1.109536490738012</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B94">
-        <v>2.67384218940447</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C94">
-        <v>0.0309236651264955</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D94">
-        <v>0.4278300245257263</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>0.8582804743450824</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B95">
-        <v>2.068347063663942</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C95">
-        <v>0.02392095996374403</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D95">
-        <v>0.3309473455395464</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>0.7014298728587816</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B96">
-        <v>1.690357011792302</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C96">
-        <v>0.01954940885592468</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D96">
-        <v>0.2704667779864021</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>0.5904799854416238</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B97">
-        <v>1.422981857967171</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C97">
-        <v>0.01645714718363985</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D97">
-        <v>0.2276852260040641</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>0.5286926167112331</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B98">
-        <v>1.274082137531911</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C98">
-        <v>0.01473508403779865</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D98">
-        <v>0.2038604201504773</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>0.4490615105490202</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B99">
-        <v>1.082181273501882</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C99">
-        <v>0.01251570172710533</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D99">
-        <v>0.1731551856793429</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>0.3516400723848317</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B100">
-        <v>0.8474079661881219</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C100">
-        <v>0.009800488703397484</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D100">
-        <v>0.1355901153756228</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>0.2892003427309162</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B101">
-        <v>0.6969361386841895</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C101">
-        <v>0.00806024373937447</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D101">
-        <v>0.111513763410447</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>0.2541919315057201</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B102">
-        <v>0.6125703087188428</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C102">
-        <v>0.007084531453770843</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D102">
-        <v>0.09801474867942186</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>0.2084890502925511</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B103">
-        <v>0.5024321627586061</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C103">
-        <v>0.00581075577739631</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D103">
-        <v>0.08039201616584711</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>0.1971422193810537</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B104">
-        <v>0.4750877396950438</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C104">
-        <v>0.005494510568443587</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D104">
-        <v>0.07601675227170857</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>0.2253703261594257</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B105">
-        <v>0.5431138960775357</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C105">
-        <v>0.006281250372367214</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D105">
-        <v>0.08690132588971798</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>0.4010058808533288</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B106">
-        <v>0.9663733021630839</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C106">
-        <v>0.01117635307786534</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D106">
-        <v>0.1546252487165382</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>0.6580851970538911</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B107">
-        <v>1.585901841709445</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C107">
-        <v>0.01834135824127983</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D107">
-        <v>0.25375335407699</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>0.8534572526688321</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B108">
-        <v>2.056723711287104</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C108">
-        <v>0.02378653293660948</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D108">
-        <v>0.3290875427612974</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>1.026386884746598</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B109">
-        <v>2.473462187134948</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C109">
-        <v>0.02860621942503127</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D109">
-        <v>0.395768079499521</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>1.19310300823054</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B110">
-        <v>2.875226895503234</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C110">
-        <v>0.03325273048333428</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D110">
-        <v>0.4600527279039425</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>1.283620960310944</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B111">
-        <v>3.093363677115605</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C111">
-        <v>0.03577553785509427</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D111">
-        <v>0.4949558590599251</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>1.258740223220721</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B112">
-        <v>3.033404257041853</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C112">
-        <v>0.03508209190870034</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D112">
-        <v>0.4853620093322359</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>1.267081944726171</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B113">
-        <v>3.053506747658181</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C113">
-        <v>0.03531458232660577</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D113">
-        <v>0.4885785226655555</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>1.250740761997373</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B114">
-        <v>3.014126570287029</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C114">
-        <v>0.0348591405572773</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D114">
-        <v>0.4822774693284175</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>1.26997478634677</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B115">
-        <v>3.060478128984519</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C115">
-        <v>0.03539520812511365</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D115">
-        <v>0.4896939835015182</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>1.241634411782949</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B116">
-        <v>2.992181421481131</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C116">
-        <v>0.03460533932865063</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D116">
-        <v>0.4787661201586526</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>1.210855723666081</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B117">
-        <v>2.918008687633808</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C117">
-        <v>0.03374751279270156</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D117">
-        <v>0.466898059034182</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>1.078944721625605</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B118">
-        <v>2.600119906645778</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C118">
-        <v>0.03007104817197795</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D118">
-        <v>0.4160340381486213</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>0.924484485188262</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B119">
-        <v>2.227890331305856</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C119">
-        <v>0.02576611844067129</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D119">
-        <v>0.3564751797470533</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>0.7597254444748952</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B120">
-        <v>1.830841944143589</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C120">
-        <v>0.02117415283691376</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D120">
-        <v>0.2929451696773989</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>0.6674694882690586</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B121">
-        <v>1.608516793068172</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C121">
-        <v>0.01860290590682287</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D121">
-        <v>0.257371875481429</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>0.5647757572868256</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B122">
-        <v>1.361037928893993</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C122">
-        <v>0.01574074988582289</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D122">
-        <v>0.2177738435000353</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>0.4964914820361102</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B123">
-        <v>1.196481487927527</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C123">
-        <v>0.0138376127840823</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D123">
-        <v>0.1914438729230396</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>0.5218000444789604</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B124">
-        <v>1.257471912828161</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C124">
-        <v>0.01454298256357926</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D124">
-        <v>0.2012026893126054</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>0.3844935679834795</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B125">
-        <v>0.9265807228611792</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C125">
-        <v>0.01071614177529566</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D125">
-        <v>0.1482582087146496</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>0.314278912677113</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B126">
-        <v>0.7573723108442141</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C126">
-        <v>0.008759203444928402</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D126">
-        <v>0.1211838961953677</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>0.259186283323021</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B127">
-        <v>0.6246060630264326</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C127">
-        <v>0.007223728014146598</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D127">
-        <v>0.09994053812242135</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>0.2405190548266232</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B128">
-        <v>0.5796204104322383</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C128">
-        <v>0.006703457497871454</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D128">
-        <v>0.09274257672853424</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>0.2670734767609204</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B129">
-        <v>0.6436131986603604</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C129">
-        <v>0.00744355037303023</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D129">
-        <v>0.1029817884013835</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>0.4288061622790734</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B130">
-        <v>1.033368453718694</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C130">
-        <v>0.01195116904868595</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D130">
-        <v>0.1653448556726711</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>0.6447758264460635</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B131">
-        <v>1.553827946941047</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C131">
-        <v>0.01797041548891742</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D131">
-        <v>0.2486213476931518</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>0.7781038181190369</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B132">
-        <v>1.875131493187316</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C132">
-        <v>0.02168637273854405</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D132">
-        <v>0.3000317505267464</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>0.8177000015980734</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B133">
-        <v>1.97055327229007</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C133">
-        <v>0.02278994988847496</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D133">
-        <v>0.3152997802764424</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>0.9787748692669456</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B134">
-        <v>2.358723269780913</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C134">
-        <v>0.02727923465708463</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D134">
-        <v>0.3774091972812083</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>1.140079729432471</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B135">
-        <v>2.747447520012364</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C135">
-        <v>0.03177492949963731</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D135">
-        <v>0.439607297890619</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>1.187568563275163</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B136">
-        <v>2.861889585247867</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C136">
-        <v>0.0330984810973161</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D136">
-        <v>0.4579186820742102</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>1.19387309386527</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B137">
-        <v>2.877082704191621</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C137">
-        <v>0.03327419338291972</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D137">
-        <v>0.4603496678953204</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>1.227432355817288</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B138">
-        <v>2.957956268244389</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C138">
-        <v>0.03420951672483729</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D138">
-        <v>0.4732899001308978</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>1.188456373621098</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B139">
-        <v>2.864029095555969</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C139">
-        <v>0.03312322507830518</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D139">
-        <v>0.4582610159453771</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>1.077420921133414</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B140">
-        <v>2.596447740765461</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C140">
-        <v>0.03002857863939975</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D140">
-        <v>0.4154464706306638</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>0.9573913862167563</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B141">
-        <v>2.307191788289952</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C141">
-        <v>0.02668325996440705</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D141">
-        <v>0.3691638658710419</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>0.7999151265218539</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B142">
-        <v>1.927693979505159</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C142">
-        <v>0.02229427126432466</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D142">
-        <v>0.3084420485987894</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>0.5367721860793507</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B143">
-        <v>1.293552874753292</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C143">
-        <v>0.01496026806697805</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D143">
-        <v>0.2069758493317382</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>0.5227248894774725</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B144">
-        <v>1.259700671950843</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C144">
-        <v>0.01456875872981321</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D144">
-        <v>0.2015593035039356</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>0.4323192051825175</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B145">
-        <v>1.041834441459367</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C145">
-        <v>0.01204908035059262</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D145">
-        <v>0.1666994620728091</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>0.3917818059277006</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B146">
-        <v>0.944144451737473</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C146">
-        <v>0.01091927076783505</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D146">
-        <v>0.1510685056669845</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>0.3400098435468346</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B147">
-        <v>0.8193805900729111</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C147">
-        <v>0.009476344968664152</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D147">
-        <v>0.1311055750918774</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>0.287612222957367</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B148">
-        <v>0.6931089714951961</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C148">
-        <v>0.008015981577230226</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D148">
-        <v>0.1109013947976622</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>0.2427328328087739</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B149">
-        <v>0.5849553345343849</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C149">
-        <v>0.006765157252278723</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D149">
-        <v>0.09359619506042713</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>0.1720636494348568</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B150">
-        <v>0.4146515675350189</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C150">
-        <v>0.004795550862889651</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D150">
-        <v>0.06634661948678781</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>0.1442045056535098</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B151">
-        <v>0.3475145651695512</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C151">
-        <v>0.004019094351367232</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D151">
-        <v>0.05560431559076052</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>0.1981635433016035</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B152">
-        <v>0.4775490007807406</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C152">
-        <v>0.005522975679026614</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D152">
-        <v>0.07641056810527966</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>0.2790726685959427</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B153">
-        <v>0.6725297287925956</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C153">
-        <v>0.007777977400164775</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D153">
-        <v>0.1076085984071111</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>0.3924341668512252</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B154">
-        <v>0.9457165588061452</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C154">
-        <v>0.01093745258601687</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D154">
-        <v>0.1513200517785734</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>0.5367721860793506</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B155">
-        <v>1.293552874753292</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C155">
-        <v>0.01496026806697805</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D155">
-        <v>0.2069758493317382</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>0.7087448135179256</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B156">
-        <v>1.707985090824115</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C156">
-        <v>0.01975328207438286</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D156">
-        <v>0.2732873713312178</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>0.7841783562124902</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B157">
-        <v>1.88977035939046</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C157">
-        <v>0.02185567495020466</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D157">
-        <v>0.3023740527432114</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>0.9069028998937725</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B158">
-        <v>2.185520941106035</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C158">
-        <v>0.02527610566454522</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D158">
-        <v>0.3496958352815645</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>0.9899347811739813</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B159">
-        <v>2.385617241755842</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C159">
-        <v>0.02759027028460583</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D159">
-        <v>0.3817123864279809</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>0.9525736214662628</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B160">
-        <v>2.295581586411935</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C160">
-        <v>0.02654898502613675</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D160">
-        <v>0.3673061672477259</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>0.9840635328622581</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B161">
-        <v>2.371468278137788</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C161">
-        <v>0.02742663392096946</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D161">
-        <v>0.37944847142368</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>0.9964960069756644</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B162">
-        <v>2.401428963595726</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C162">
-        <v>0.02777313687007127</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D162">
-        <v>0.3842423522462171</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>1.042284453259358</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B163">
-        <v>2.511773310521338</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C163">
-        <v>0.0290492973130664</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D163">
-        <v>0.4018980780921671</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>1.008040670743136</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B164">
-        <v>2.429250138745559</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C164">
-        <v>0.02809489583818398</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D164">
-        <v>0.388693899197587</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>0.9890044792497127</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B165">
-        <v>2.38337533213434</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C165">
-        <v>0.02756434202950763</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D165">
-        <v>0.3813536680817177</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>0.8225929994814383</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B166">
-        <v>1.982344776474404</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C166">
-        <v>0.0229263216340398</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D166">
-        <v>0.3171864883044514</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>0.7021410961379089</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B167">
-        <v>1.692070969670832</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C167">
-        <v>0.01956923121480831</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D167">
-        <v>0.2707410210378856</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>0.5161800344530579</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B168">
-        <v>1.243928401607418</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C168">
-        <v>0.01438634841094048</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D168">
-        <v>0.1990356501504978</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>0.4378803528528177</v>
+        <v>0.0914168361797274</v>
       </c>
       <c r="B169">
-        <v>1.055236101870253</v>
+        <v>0.220302978261351</v>
       </c>
       <c r="C169">
-        <v>0.01220407396252959</v>
+        <v>0.00254785998707013</v>
       </c>
       <c r="D169">
-        <v>0.1688438042950223</v>
+        <v>0.0352497349941347</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>0.1044807437212136</v>
+        <v>0.104835489366223</v>
       </c>
       <c r="B170">
-        <v>0.251785338178753</v>
+        <v>0.252640230181001</v>
       </c>
       <c r="C170">
-        <v>0.002911961488398588</v>
+        <v>0.0029218485318829</v>
       </c>
       <c r="D170">
-        <v>0.04028709242269318</v>
+        <v>0.0404238800265906</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>0.09584227293180224</v>
+        <v>0.0954504840641465</v>
       </c>
       <c r="B171">
-        <v>0.2309677194330165</v>
+        <v>0.23002355796341</v>
       </c>
       <c r="C171">
-        <v>0.002671200431753136</v>
+        <v>0.00266028096416932</v>
       </c>
       <c r="D171">
-        <v>0.03695615450352626</v>
+        <v>0.0368050832749031</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>0.09103513107589202</v>
+        <v>0.0902279101959971</v>
       </c>
       <c r="B172">
-        <v>0.2193831173833486</v>
+        <v>0.217437817465006</v>
       </c>
       <c r="C172">
-        <v>0.002537221562010105</v>
+        <v>0.0025147236735843</v>
       </c>
       <c r="D172">
-        <v>0.03510255199898427</v>
+        <v>0.0347912928995982</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>0.09368735730525385</v>
+        <v>0.0931093411612298</v>
       </c>
       <c r="B173">
-        <v>0.2257746461407271</v>
+        <v>0.224381700559442</v>
       </c>
       <c r="C173">
-        <v>0.002611141218047681</v>
+        <v>0.00259503144804488</v>
       </c>
       <c r="D173">
-        <v>0.03612523311152784</v>
+        <v>0.0359023538613739</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>0.08536171562014326</v>
+        <v>0.0837098306806764</v>
       </c>
       <c r="B174">
-        <v>0.2057109058515673</v>
+        <v>0.201730072701816</v>
       </c>
       <c r="C174">
-        <v>0.002379098957533742</v>
+        <v>0.00233305960946183</v>
       </c>
       <c r="D174">
-        <v>0.03291492005191497</v>
+        <v>0.032277964007598</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>0.08336185031430622</v>
+        <v>0.0815371375089028</v>
       </c>
       <c r="B175">
-        <v>0.2008914841628615</v>
+        <v>0.196494157780753</v>
       </c>
       <c r="C175">
-        <v>0.002323361119677985</v>
+        <v>0.00227250492142101</v>
       </c>
       <c r="D175">
-        <v>0.03214378505096038</v>
+        <v>0.0314401877102647</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>0.08242609146428183</v>
+        <v>0.0805205106101109</v>
       </c>
       <c r="B176">
-        <v>0.1986364240425408</v>
+        <v>0.194044215921639</v>
       </c>
       <c r="C176">
-        <v>0.00229728077571556</v>
+        <v>0.00224417072057294</v>
       </c>
       <c r="D176">
-        <v>0.03178296254976459</v>
+        <v>0.0310481830176075</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>0.08549006322593153</v>
+        <v>0.0838492700548661</v>
       </c>
       <c r="B177">
-        <v>0.2060202072996319</v>
+        <v>0.202066103904652</v>
       </c>
       <c r="C177">
-        <v>0.00238267610746465</v>
+        <v>0.00233694589580652</v>
       </c>
       <c r="D177">
-        <v>0.03296441005047797</v>
+        <v>0.0323317309196171</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>0.08846846991705572</v>
+        <v>0.0877938077102872</v>
       </c>
       <c r="B178">
-        <v>0.2131977895913466</v>
+        <v>0.211571939259147</v>
       </c>
       <c r="C178">
-        <v>0.002465686672593135</v>
+        <v>0.00244688329989673</v>
       </c>
       <c r="D178">
-        <v>0.03411286421881603</v>
+        <v>0.0338527188780563</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>0.09633958353461566</v>
+        <v>0.0966995099199213</v>
       </c>
       <c r="B179">
-        <v>0.2321661748981055</v>
+        <v>0.23303355182725</v>
       </c>
       <c r="C179">
-        <v>0.002685060874085256</v>
+        <v>0.0026950923089252</v>
       </c>
       <c r="D179">
-        <v>0.03714791422407141</v>
+        <v>0.037286699487592</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>0.1138704918621368</v>
+        <v>0.116808541706676</v>
       </c>
       <c r="B180">
-        <v>0.2744134400362979</v>
+        <v>0.281493767447321</v>
       </c>
       <c r="C180">
-        <v>0.003173661242805859</v>
+        <v>0.0032555470304982</v>
       </c>
       <c r="D180">
-        <v>0.04390771798206483</v>
+        <v>0.0450406108139274</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>0.128110164394233</v>
+        <v>0.134405016603404</v>
       </c>
       <c r="B181">
-        <v>0.3087292444261988</v>
+        <v>0.323899039699676</v>
       </c>
       <c r="C181">
-        <v>0.003570532250266463</v>
+        <v>0.00374597479168997</v>
       </c>
       <c r="D181">
-        <v>0.04939844271216613</v>
+        <v>0.0518256966127966</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>0.1474992390643414</v>
+        <v>0.158659010389643</v>
       </c>
       <c r="B182">
-        <v>0.3554544547272729</v>
+        <v>0.382348087918057</v>
       </c>
       <c r="C182">
-        <v>0.00411092119395252</v>
+        <v>0.0044219529033489</v>
       </c>
       <c r="D182">
-        <v>0.05687474327631072</v>
+        <v>0.0611778782156849</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>0.1743771129975231</v>
+        <v>0.187859663551618</v>
       </c>
       <c r="B183">
-        <v>0.4202267212403221</v>
+        <v>0.452717957710012</v>
       </c>
       <c r="C183">
-        <v>0.004860028933770091</v>
+        <v>0.00523579834907663</v>
       </c>
       <c r="D183">
-        <v>0.06723867592748814</v>
+        <v>0.0724374593675814</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>0.1851571480560213</v>
+        <v>0.205241208925807</v>
       </c>
       <c r="B184">
-        <v>0.4462052382005884</v>
+        <v>0.494605277078517</v>
       </c>
       <c r="C184">
-        <v>0.005160477091161604</v>
+        <v>0.00572023585340321</v>
       </c>
       <c r="D184">
-        <v>0.07139538704241306</v>
+        <v>0.0791396697462485</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>0.2002069602952317</v>
+        <v>0.226198417880211</v>
       </c>
       <c r="B185">
-        <v>0.482473376512155</v>
+        <v>0.545109492074796</v>
       </c>
       <c r="C185">
-        <v>0.005579927337085842</v>
+        <v>0.00630432994774066</v>
       </c>
       <c r="D185">
-        <v>0.07719849635261357</v>
+        <v>0.0872206326490452</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>0.1885794599201126</v>
+        <v>0.213566071793661</v>
       </c>
       <c r="B186">
-        <v>0.4544525756463539</v>
+        <v>0.514667140516889</v>
       </c>
       <c r="C186">
-        <v>0.005255859646784627</v>
+        <v>0.00595225640766032</v>
       </c>
       <c r="D186">
-        <v>0.07271500814633457</v>
+        <v>0.0823496824990137</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>0.1906087564037509</v>
+        <v>0.218251321855461</v>
       </c>
       <c r="B187">
-        <v>0.4593429227399885</v>
+        <v>0.525957998805666</v>
       </c>
       <c r="C187">
-        <v>0.005312417754991294</v>
+        <v>0.00608283805608238</v>
       </c>
       <c r="D187">
-        <v>0.07349749161723641</v>
+        <v>0.0841562843238133</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>0.1775882406481787</v>
+        <v>0.2072948964138</v>
       </c>
       <c r="B188">
-        <v>0.4279651315220563</v>
+        <v>0.49955440339846</v>
       </c>
       <c r="C188">
-        <v>0.00494952561727372</v>
+        <v>0.00577747375831514</v>
       </c>
       <c r="D188">
-        <v>0.06847686577793773</v>
+        <v>0.0799315582291337</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>0.1473335658490466</v>
+        <v>0.168755717741145</v>
       </c>
       <c r="B189">
-        <v>0.3550552032953395</v>
+        <v>0.40667987178986</v>
       </c>
       <c r="C189">
-        <v>0.004106303749575545</v>
+        <v>0.00470335617365539</v>
       </c>
       <c r="D189">
-        <v>0.05681086076649288</v>
+        <v>0.0650711026295561</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>0.1157313866676021</v>
+        <v>0.128043845896717</v>
       </c>
       <c r="B190">
-        <v>0.2788979604485892</v>
+        <v>0.308569425260198</v>
       </c>
       <c r="C190">
-        <v>0.003225525862203431</v>
+        <v>0.00356868390095483</v>
       </c>
       <c r="D190">
-        <v>0.0446252668656824</v>
+        <v>0.0493728707326451</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>0.1043845557561046</v>
+        <v>0.108629046724944</v>
       </c>
       <c r="B191">
-        <v>0.2515535373850267</v>
+        <v>0.261782222173465</v>
       </c>
       <c r="C191">
-        <v>0.002909280653250705</v>
+        <v>0.00302757799493211</v>
       </c>
       <c r="D191">
-        <v>0.04025000297154382</v>
+        <v>0.0418866509686637</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>0.1038738937958297</v>
+        <v>0.104176195620127</v>
       </c>
       <c r="B192">
-        <v>0.2503229068421782</v>
+        <v>0.251051415889413</v>
       </c>
       <c r="C192">
-        <v>0.00289504809795919</v>
+        <v>0.00290347349041787</v>
       </c>
       <c r="D192">
-        <v>0.04005309505475826</v>
+        <v>0.0401696606638959</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>0.09527820554168107</v>
+        <v>0.094837670109447</v>
       </c>
       <c r="B193">
-        <v>0.2296083885791299</v>
+        <v>0.228546754072768</v>
       </c>
       <c r="C193">
-        <v>0.00265547942462404</v>
+        <v>0.00264320135148586</v>
       </c>
       <c r="D193">
-        <v>0.03673865380177901</v>
+        <v>0.0365687862162147</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>0.09834217730333078</v>
+        <v>0.0978120606574727</v>
       </c>
       <c r="B194">
-        <v>0.236992171836221</v>
+        <v>0.235714657969094</v>
       </c>
       <c r="C194">
-        <v>0.002740874756373131</v>
+        <v>0.00272609998350956</v>
       </c>
       <c r="D194">
-        <v>0.0379201013024924</v>
+        <v>0.0377156917860031</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>0.09039884997270689</v>
+        <v>0.0891822729402517</v>
       </c>
       <c r="B195">
-        <v>0.2178497606418452</v>
+        <v>0.214917964325822</v>
       </c>
       <c r="C195">
-        <v>0.002519487901219799</v>
+        <v>0.0024855809309973</v>
       </c>
       <c r="D195">
-        <v>0.03485720616110211</v>
+        <v>0.0343881020027643</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>0.09039884997270689</v>
+        <v>0.0891822729402517</v>
       </c>
       <c r="B196">
-        <v>0.2178497606418452</v>
+        <v>0.214917964325822</v>
       </c>
       <c r="C196">
-        <v>0.002519487901219799</v>
+        <v>0.0024855809309973</v>
       </c>
       <c r="D196">
-        <v>0.03485720616110211</v>
+        <v>0.0343881020027643</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>0.0831078835656078</v>
+        <v>0.0812612230164897</v>
       </c>
       <c r="B197">
-        <v>0.2002794565161421</v>
+        <v>0.195829238855922</v>
       </c>
       <c r="C197">
-        <v>0.002316282864248286</v>
+        <v>0.00226481496490479</v>
       </c>
       <c r="D197">
-        <v>0.03204585713130081</v>
+        <v>0.0313337968839678</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>0.08770384120808235</v>
+        <v>0.0862543621836226</v>
       </c>
       <c r="B198">
-        <v>0.2113551314017786</v>
+        <v>0.207862070830441</v>
       </c>
       <c r="C198">
-        <v>0.002444375861871921</v>
+        <v>0.00240397772775516</v>
       </c>
       <c r="D198">
-        <v>0.03381802838237088</v>
+        <v>0.0332591187369822</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>0.08227104114357046</v>
+        <v>0.0803520608789677</v>
       </c>
       <c r="B199">
-        <v>0.1982627724389572</v>
+        <v>0.193638273438734</v>
       </c>
       <c r="C199">
-        <v>0.002292959399865862</v>
+        <v>0.00223947589248932</v>
       </c>
       <c r="D199">
-        <v>0.03172317615872075</v>
+        <v>0.0309832299014117</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>0.08227104114357046</v>
+        <v>0.0803520608789677</v>
       </c>
       <c r="B200">
-        <v>0.1982627724389573</v>
+        <v>0.193638273438734</v>
       </c>
       <c r="C200">
-        <v>0.002292959399865862</v>
+        <v>0.00223947589248932</v>
       </c>
       <c r="D200">
-        <v>0.03172317615872075</v>
+        <v>0.0309832299014117</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>0.0800439118039581</v>
+        <v>0.0779324635717345</v>
       </c>
       <c r="B201">
-        <v>0.192895673259051</v>
+        <v>0.18780735087291</v>
       </c>
       <c r="C201">
-        <v>0.002230887532499196</v>
+        <v>0.00217203978967121</v>
       </c>
       <c r="D201">
-        <v>0.03086440963058742</v>
+        <v>0.0300502489819582</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>0.08157589768478295</v>
+        <v>0.0799512121908416</v>
       </c>
       <c r="B202">
-        <v>0.1965875648875965</v>
+        <v>0.192672278951102</v>
       </c>
       <c r="C202">
-        <v>0.002273585198373741</v>
+        <v>0.00222830392049788</v>
       </c>
       <c r="D202">
-        <v>0.03145513338094411</v>
+        <v>0.0308286652651842</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>0.09736363591804362</v>
+        <v>0.0988751673476612</v>
       </c>
       <c r="B203">
-        <v>0.2346340112332121</v>
+        <v>0.238276610229153</v>
       </c>
       <c r="C203">
-        <v>0.002713602029100403</v>
+        <v>0.00275572961313919</v>
       </c>
       <c r="D203">
-        <v>0.03754278213510893</v>
+        <v>0.0381256187826666</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>0.1189664885703028</v>
+        <v>0.127660466643033</v>
       </c>
       <c r="B204">
-        <v>0.286694145636433</v>
+        <v>0.307645529893441</v>
       </c>
       <c r="C204">
-        <v>0.003315690727193731</v>
+        <v>0.00355799881600602</v>
       </c>
       <c r="D204">
-        <v>0.04587270103114643</v>
+        <v>0.0492250421962472</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>0.141518451430048</v>
+        <v>0.168816702711019</v>
       </c>
       <c r="B205">
-        <v>0.3410415152377341</v>
+        <v>0.406826837830841</v>
       </c>
       <c r="C205">
-        <v>0.003944231882208879</v>
+        <v>0.00470505587330642</v>
       </c>
       <c r="D205">
-        <v>0.05456859062462018</v>
+        <v>0.0650946180356508</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>0.1646238587853309</v>
+        <v>0.201006251599496</v>
       </c>
       <c r="B206">
-        <v>0.3967226158645719</v>
+        <v>0.484399567159156</v>
       </c>
       <c r="C206">
-        <v>0.004588197975825844</v>
+        <v>0.00560220422192732</v>
       </c>
       <c r="D206">
-        <v>0.06347788480106714</v>
+        <v>0.077506697859424</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>0.2103373628930833</v>
+        <v>0.252796518825332</v>
       </c>
       <c r="B207">
-        <v>0.5068863616531585</v>
+        <v>0.609207541177986</v>
       </c>
       <c r="C207">
-        <v>0.005862269720727655</v>
+        <v>0.00704564019169719</v>
       </c>
       <c r="D207">
-        <v>0.08110471343341592</v>
+        <v>0.0974766866632041</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>0.2264352017677667</v>
+        <v>0.27099426675425</v>
       </c>
       <c r="B208">
-        <v>0.5456801112059413</v>
+        <v>0.653061805161789</v>
       </c>
       <c r="C208">
-        <v>0.006310929303153715</v>
+        <v>0.00755282591087612</v>
       </c>
       <c r="D208">
-        <v>0.08731193496966842</v>
+        <v>0.104493619416415</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>0.2394262863455377</v>
+        <v>0.285462406550286</v>
       </c>
       <c r="B209">
-        <v>0.5769869770189449</v>
+        <v>0.687928186674948</v>
       </c>
       <c r="C209">
-        <v>0.006673001170520381</v>
+        <v>0.00795606448283003</v>
       </c>
       <c r="D209">
-        <v>0.09232121233901987</v>
+        <v>0.110072439631388</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>0.2335550380338148</v>
+        <v>0.279083766409155</v>
       </c>
       <c r="B210">
-        <v>0.5628380134008918</v>
+        <v>0.672556473114595</v>
       </c>
       <c r="C210">
-        <v>0.006509364806884017</v>
+        <v>0.00777828670505225</v>
       </c>
       <c r="D210">
-        <v>0.09005729733471908</v>
+        <v>0.107612877651407</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>0.2164653064163828</v>
+        <v>0.260517144405031</v>
       </c>
       <c r="B211">
-        <v>0.5216539281673408</v>
+        <v>0.62781326940407</v>
       </c>
       <c r="C211">
-        <v>0.006033060384225838</v>
+        <v>0.00726082017179398</v>
       </c>
       <c r="D211">
-        <v>0.08346760843484273</v>
+        <v>0.100453709463887</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>0.1942556038387395</v>
+        <v>0.236388084814506</v>
       </c>
       <c r="B212">
-        <v>0.468131362427545</v>
+        <v>0.569665296748489</v>
       </c>
       <c r="C212">
-        <v>0.005414058295693111</v>
+        <v>0.00658832407561028</v>
       </c>
       <c r="D212">
-        <v>0.07490369217087028</v>
+        <v>0.0911497016709291</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>0.1702705715261565</v>
+        <v>0.209267165241511</v>
       </c>
       <c r="B213">
-        <v>0.4103304772408342</v>
+        <v>0.504307321075707</v>
       </c>
       <c r="C213">
-        <v>0.004745576354383417</v>
+        <v>0.00583244246036024</v>
       </c>
       <c r="D213">
-        <v>0.06565522035565559</v>
+        <v>0.0806920522083533</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>0.09787429787831857</v>
+        <v>0.127779472326814</v>
       </c>
       <c r="B214">
-        <v>0.2358646417760606</v>
+        <v>0.307932318494562</v>
       </c>
       <c r="C214">
-        <v>0.002727834584391918</v>
+        <v>0.00356131559913491</v>
       </c>
       <c r="D214">
-        <v>0.03773969005189449</v>
+        <v>0.0492709300106954</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>0.082966184602358</v>
+        <v>0.10449562564797</v>
       </c>
       <c r="B215">
-        <v>0.199937979990318</v>
+        <v>0.251821201734349</v>
       </c>
       <c r="C215">
-        <v>0.002312333601357983</v>
+        <v>0.00291237625954249</v>
       </c>
       <c r="D215">
-        <v>0.0319912189364974</v>
+        <v>0.0402928307964578</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>0.07837022695988344</v>
+        <v>0.0803665660574444</v>
       </c>
       <c r="B216">
-        <v>0.1888623051046814</v>
+        <v>0.193673229078769</v>
       </c>
       <c r="C216">
-        <v>0.002184240603734348</v>
+        <v>0.00223988016335878</v>
       </c>
       <c r="D216">
-        <v>0.03021904768542731</v>
+        <v>0.0309888230035001</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>0.07716442154082098</v>
+        <v>0.0762216040579603</v>
       </c>
       <c r="B217">
-        <v>0.1859564670104722</v>
+        <v>0.183684396480458</v>
       </c>
       <c r="C217">
-        <v>0.002150633846950712</v>
+        <v>0.00212435677327286</v>
       </c>
       <c r="D217">
-        <v>0.02975409699086512</v>
+        <v>0.0293905527269471</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>0.07683824107905861</v>
+        <v>0.0751584973677718</v>
       </c>
       <c r="B218">
-        <v>0.1851704134761359</v>
+        <v>0.181122444220399</v>
       </c>
       <c r="C218">
-        <v>0.002141542937859803</v>
+        <v>0.00209472714364323</v>
       </c>
       <c r="D218">
-        <v>0.02962832393507063</v>
+        <v>0.0289806257302836</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>0.07632757911878366</v>
+        <v>0.0746037041269793</v>
       </c>
       <c r="B219">
-        <v>0.1839397829332874</v>
+        <v>0.179785462889897</v>
       </c>
       <c r="C219">
-        <v>0.002127310382568288</v>
+        <v>0.00207926461443763</v>
       </c>
       <c r="D219">
-        <v>0.02943141601828506</v>
+        <v>0.0287667010799486</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>0.07632757911878366</v>
+        <v>0.0742493352302498</v>
       </c>
       <c r="B220">
-        <v>0.1839397829332874</v>
+        <v>0.178931478803211</v>
       </c>
       <c r="C220">
-        <v>0.002127310382568288</v>
+        <v>0.00206938807122776</v>
       </c>
       <c r="D220">
-        <v>0.02943141601828506</v>
+        <v>0.0286300587477275</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>0.07530625519823375</v>
+        <v>0.0734941176453942</v>
       </c>
       <c r="B221">
-        <v>0.1814785218475904</v>
+        <v>0.177111500228893</v>
       </c>
       <c r="C221">
-        <v>0.002098845271985258</v>
+        <v>0.00204833955602644</v>
       </c>
       <c r="D221">
-        <v>0.02903760018471394</v>
+        <v>0.0283388517792788</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>0.07530625519823375</v>
+        <v>0.0731397487486647</v>
       </c>
       <c r="B222">
-        <v>0.1814785218475904</v>
+        <v>0.176257516142207</v>
       </c>
       <c r="C222">
-        <v>0.002098845271985258</v>
+        <v>0.00203846301281656</v>
       </c>
       <c r="D222">
-        <v>0.02903760018471394</v>
+        <v>0.0282022094470576</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>0.07530625519823375</v>
+        <v>0.0731397487486647</v>
       </c>
       <c r="B223">
-        <v>0.1814785218475904</v>
+        <v>0.176257516142207</v>
       </c>
       <c r="C223">
-        <v>0.002098845271985258</v>
+        <v>0.00203846301281656</v>
       </c>
       <c r="D223">
-        <v>0.02903760018471394</v>
+        <v>0.0282022094470576</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>0.07530625519823375</v>
+        <v>0.0727853798519352</v>
       </c>
       <c r="B224">
-        <v>0.1814785218475904</v>
+        <v>0.17540353205552</v>
       </c>
       <c r="C224">
-        <v>0.002098845271985258</v>
+        <v>0.00202858646960669</v>
       </c>
       <c r="D224">
-        <v>0.02903760018471394</v>
+        <v>0.0280655671148364</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>0.07530625519823375</v>
+        <v>0.0727853798519352</v>
       </c>
       <c r="B225">
-        <v>0.1814785218475904</v>
+        <v>0.17540353205552</v>
       </c>
       <c r="C225">
-        <v>0.002098845271985258</v>
+        <v>0.00202858646960669</v>
       </c>
       <c r="D225">
-        <v>0.02903760018471394</v>
+        <v>0.0280655671148364</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>0.07530625519823375</v>
+        <v>0.0727853798519352</v>
       </c>
       <c r="B226">
-        <v>0.1814785218475904</v>
+        <v>0.17540353205552</v>
       </c>
       <c r="C226">
-        <v>0.002098845271985258</v>
+        <v>0.00202858646960669</v>
       </c>
       <c r="D226">
-        <v>0.02903760018471394</v>
+        <v>0.0280655671148364</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>0.07632757911878366</v>
+        <v>0.0738949663335203</v>
       </c>
       <c r="B227">
-        <v>0.1839397829332874</v>
+        <v>0.178077494716525</v>
       </c>
       <c r="C227">
-        <v>0.002127310382568288</v>
+        <v>0.00205951152801788</v>
       </c>
       <c r="D227">
-        <v>0.02943141601828506</v>
+        <v>0.0284934164155063</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>0.07869640742164583</v>
+        <v>0.0764685081934199</v>
       </c>
       <c r="B228">
-        <v>0.1896483586390177</v>
+        <v>0.184279404125219</v>
       </c>
       <c r="C228">
-        <v>0.002193331512825257</v>
+        <v>0.00213123818805014</v>
       </c>
       <c r="D228">
-        <v>0.0303448207412218</v>
+        <v>0.0294857573490672</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>0.08663973475226969</v>
+        <v>0.0854526648073704</v>
       </c>
       <c r="B229">
-        <v>0.2087907698333934</v>
+        <v>0.205930081855178</v>
       </c>
       <c r="C229">
-        <v>0.002414718367978588</v>
+        <v>0.00238163378377228</v>
       </c>
       <c r="D229">
-        <v>0.03340771588261209</v>
+        <v>0.0329499894645272</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>0.09629952946223097</v>
+        <v>0.0959472565910321</v>
       </c>
       <c r="B230">
-        <v>0.2320696496648269</v>
+        <v>0.231220716733772</v>
       </c>
       <c r="C230">
-        <v>0.002683944535207071</v>
+        <v>0.00267412640989705</v>
       </c>
       <c r="D230">
-        <v>0.03713246963535013</v>
+        <v>0.0369966355168846</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>0.1208807888056144</v>
+        <v>0.122652822297424</v>
       </c>
       <c r="B231">
-        <v>0.2913073663597625</v>
+        <v>0.295577742278887</v>
       </c>
       <c r="C231">
-        <v>0.003369043798428883</v>
+        <v>0.00341843178228618</v>
       </c>
       <c r="D231">
-        <v>0.0466108426997257</v>
+        <v>0.0472941272411444</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>0.1392913220904356</v>
+        <v>0.143008758219638</v>
       </c>
       <c r="B232">
-        <v>0.3356744160578278</v>
+        <v>0.344632965543719</v>
       </c>
       <c r="C232">
-        <v>0.003882160014842212</v>
+        <v>0.00398576791863647</v>
       </c>
       <c r="D232">
-        <v>0.05370982409648683</v>
+        <v>0.0551432431895999</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>0.144638557084422</v>
+        <v>0.14917246883823</v>
       </c>
       <c r="B233">
-        <v>0.3485605740552729</v>
+        <v>0.359486726220222</v>
       </c>
       <c r="C233">
-        <v>0.004031191710227667</v>
+        <v>0.00415755543954906</v>
       </c>
       <c r="D233">
-        <v>0.05577168298776165</v>
+        <v>0.0575199297493789</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>0.1449647375461844</v>
+        <v>0.150589944425148</v>
       </c>
       <c r="B234">
-        <v>0.3493466275896092</v>
+        <v>0.362902662566967</v>
       </c>
       <c r="C234">
-        <v>0.004040282619318576</v>
+        <v>0.00419706161238856</v>
       </c>
       <c r="D234">
-        <v>0.05589745604355614</v>
+        <v>0.0580664990782636</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>0.1527369347357573</v>
+        <v>0.158325075183323</v>
       </c>
       <c r="B235">
-        <v>0.3680766368532322</v>
+        <v>0.381543346433086</v>
       </c>
       <c r="C235">
-        <v>0.004256899941230697</v>
+        <v>0.00441264586335482</v>
       </c>
       <c r="D235">
-        <v>0.05889436452019577</v>
+        <v>0.0610491149810347</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>0.1379010351728606</v>
+        <v>0.142915798636845</v>
       </c>
       <c r="B236">
-        <v>0.3323240009551063</v>
+        <v>0.344408944741828</v>
       </c>
       <c r="C236">
-        <v>0.003843411611857971</v>
+        <v>0.00398317706107334</v>
       </c>
       <c r="D236">
-        <v>0.05317373854093355</v>
+        <v>0.0551073985815872</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>0.124722740633699</v>
+        <v>0.127181163550591</v>
       </c>
       <c r="B237">
-        <v>0.3005659828841811</v>
+        <v>0.306490470243955</v>
       </c>
       <c r="C237">
-        <v>0.003476122053858582</v>
+        <v>0.00354464025732092</v>
       </c>
       <c r="D237">
-        <v>0.04809227423312466</v>
+        <v>0.0490402260540954</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>0.09217145124476861</v>
+        <v>0.0918167997700247</v>
       </c>
       <c r="B238">
-        <v>0.2221215048393506</v>
+        <v>0.221266839775497</v>
       </c>
       <c r="C238">
-        <v>0.002568891709564648</v>
+        <v>0.00255900729068059</v>
       </c>
       <c r="D238">
-        <v>0.03554070963487796</v>
+        <v>0.0354039583424199</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>0.08463986944643266</v>
+        <v>0.0832799716355969</v>
       </c>
       <c r="B239">
-        <v>0.2039713481446876</v>
+        <v>0.200694166934115</v>
       </c>
       <c r="C239">
-        <v>0.002358980530122832</v>
+        <v>0.00232107909573146</v>
       </c>
       <c r="D239">
-        <v>0.0326365808816575</v>
+        <v>0.0321122131671938</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>0.08320679999359486</v>
+        <v>0.0813686877777596</v>
       </c>
       <c r="B240">
-        <v>0.2005178325592779</v>
+        <v>0.196088215297848</v>
       </c>
       <c r="C240">
-        <v>0.002319039743828287</v>
+        <v>0.00226781009333739</v>
       </c>
       <c r="D240">
-        <v>0.03208399865991655</v>
+        <v>0.0313752345940689</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>0.08204377710979514</v>
+        <v>0.0801051567435081</v>
       </c>
       <c r="B241">
-        <v>0.1977150949477569</v>
+        <v>0.193043265793973</v>
       </c>
       <c r="C241">
-        <v>0.002286625370354953</v>
+        <v>0.00223259447771204</v>
       </c>
       <c r="D241">
-        <v>0.03163554463154201</v>
+        <v>0.0308880252792916</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>0.08116415215249506</v>
+        <v>0.0791495148145895</v>
       </c>
       <c r="B242">
-        <v>0.1955953103878839</v>
+        <v>0.190740289975839</v>
       </c>
       <c r="C242">
-        <v>0.002262109522662227</v>
+        <v>0.002205959976515</v>
       </c>
       <c r="D242">
-        <v>0.0312963669927743</v>
+        <v>0.0305195359927291</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>0.07916428684665801</v>
+        <v>0.0769768216428159</v>
       </c>
       <c r="B243">
-        <v>0.190775888699178</v>
+        <v>0.185504375054776</v>
       </c>
       <c r="C243">
-        <v>0.002206371684806469</v>
+        <v>0.00214540528847418</v>
       </c>
       <c r="D243">
-        <v>0.0305252319918197</v>
+        <v>0.0296817596953958</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>0.0783274444246207</v>
+        <v>0.0760676595052939</v>
       </c>
       <c r="B244">
-        <v>0.1887592046219932</v>
+        <v>0.183313409637588</v>
       </c>
       <c r="C244">
-        <v>0.002183048220424045</v>
+        <v>0.0021200662160587</v>
       </c>
       <c r="D244">
-        <v>0.03020255101923965</v>
+        <v>0.0293311927128397</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>0.07785956499960849</v>
+        <v>0.0755593460558979</v>
       </c>
       <c r="B245">
-        <v>0.1876316745618329</v>
+        <v>0.182088438708031</v>
       </c>
       <c r="C245">
-        <v>0.002170008048442833</v>
+        <v>0.00210589911563467</v>
       </c>
       <c r="D245">
-        <v>0.03002213976864175</v>
+        <v>0.0291351903665111</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>0.07632757911878366</v>
+        <v>0.0738949663335203</v>
       </c>
       <c r="B246">
-        <v>0.1839397829332874</v>
+        <v>0.178077494716525</v>
       </c>
       <c r="C246">
-        <v>0.002127310382568288</v>
+        <v>0.00205951152801788</v>
       </c>
       <c r="D246">
-        <v>0.02943141601828506</v>
+        <v>0.0284934164155063</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>0.07683824107905858</v>
+        <v>0.0744497595743128</v>
       </c>
       <c r="B247">
-        <v>0.1851704134761359</v>
+        <v>0.179414476047027</v>
       </c>
       <c r="C247">
-        <v>0.002141542937859803</v>
+        <v>0.00207497405722348</v>
       </c>
       <c r="D247">
-        <v>0.02962832393507062</v>
+        <v>0.0287073410658412</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>0.07632757911878366</v>
+        <v>0.0738949663335203</v>
       </c>
       <c r="B248">
-        <v>0.1839397829332874</v>
+        <v>0.178077494716525</v>
       </c>
       <c r="C248">
-        <v>0.002127310382568288</v>
+        <v>0.00205951152801788</v>
       </c>
       <c r="D248">
-        <v>0.02943141601828506</v>
+        <v>0.0284934164155063</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>0.07632757911878366</v>
+        <v>0.0738949663335203</v>
       </c>
       <c r="B249">
-        <v>0.1839397829332874</v>
+        <v>0.178077494716525</v>
       </c>
       <c r="C249">
-        <v>0.002127310382568288</v>
+        <v>0.00205951152801788</v>
       </c>
       <c r="D249">
-        <v>0.02943141601828506</v>
+        <v>0.0284934164155063</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>0.07665375958054603</v>
+        <v>0.0742493352302498</v>
       </c>
       <c r="B250">
-        <v>0.1847258364676237</v>
+        <v>0.178931478803211</v>
       </c>
       <c r="C250">
-        <v>0.002136401291659197</v>
+        <v>0.00206938807122776</v>
       </c>
       <c r="D250">
-        <v>0.02955718907407955</v>
+        <v>0.0286300587477275</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>0.07897980534814544</v>
+        <v>0.0774851350922119</v>
       </c>
       <c r="B251">
-        <v>0.1903313116906658</v>
+        <v>0.186729345984333</v>
       </c>
       <c r="C251">
-        <v>0.002201230038605863</v>
+        <v>0.00215957238889821</v>
       </c>
       <c r="D251">
-        <v>0.03045409713082863</v>
+        <v>0.0298777620417244</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>0.08297953595981954</v>
+        <v>0.0821848903324885</v>
       </c>
       <c r="B252">
-        <v>0.1999701550680775</v>
+        <v>0.198055159913146</v>
       </c>
       <c r="C252">
-        <v>0.002312705714317378</v>
+        <v>0.00229055830818973</v>
       </c>
       <c r="D252">
-        <v>0.03199636713273781</v>
+        <v>0.0316899569686123</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>0.09682354277996748</v>
+        <v>0.0979340305972194</v>
       </c>
       <c r="B253">
-        <v>0.2333324552854349</v>
+        <v>0.236008590051055</v>
       </c>
       <c r="C253">
-        <v>0.002698549203457981</v>
+        <v>0.00272949938281162</v>
       </c>
       <c r="D253">
-        <v>0.03733452574837612</v>
+        <v>0.0377627225981926</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>0.1126246323706897</v>
+        <v>0.12077054879654</v>
       </c>
       <c r="B254">
-        <v>0.27141107670881</v>
+        <v>0.29104170192269</v>
       </c>
       <c r="C254">
-        <v>0.003138938147144038</v>
+        <v>0.00336597132163104</v>
       </c>
       <c r="D254">
-        <v>0.04342732269878136</v>
+        <v>0.0465683348721962</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>0.1348370634112109</v>
+        <v>0.149509368300516</v>
       </c>
       <c r="B255">
-        <v>0.3249402176980152</v>
+        <v>0.360298611186033</v>
       </c>
       <c r="C255">
-        <v>0.00375801628010888</v>
+        <v>0.0041669450957163</v>
       </c>
       <c r="D255">
-        <v>0.05199229104022017</v>
+        <v>0.0576498359817705</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>0.1476864490257321</v>
+        <v>0.166304145820992</v>
       </c>
       <c r="B256">
-        <v>0.3559056069851947</v>
+        <v>0.400771894463126</v>
       </c>
       <c r="C256">
-        <v>0.004116138884585244</v>
+        <v>0.00463502891292519</v>
       </c>
       <c r="D256">
-        <v>0.0569469302147682</v>
+        <v>0.0641257925081846</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>0.1495446153683193</v>
+        <v>0.171157845613935</v>
       </c>
       <c r="B257">
-        <v>0.3603835521480766</v>
+        <v>0.41246869523481</v>
       </c>
       <c r="C257">
-        <v>0.004167927459550699</v>
+        <v>0.00477030538943087</v>
       </c>
       <c r="D257">
-        <v>0.05766342702091939</v>
+        <v>0.06599734744918</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>0.1651317922827277</v>
+        <v>0.188092062508601</v>
       </c>
       <c r="B258">
-        <v>0.3979466711580107</v>
+        <v>0.453278009714738</v>
       </c>
       <c r="C258">
-        <v>0.004602354486685241</v>
+        <v>0.00524227549298445</v>
       </c>
       <c r="D258">
-        <v>0.06367374064038629</v>
+        <v>0.0725270708876131</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>0.1593594603989919</v>
+        <v>0.181112149335281</v>
       </c>
       <c r="B259">
-        <v>0.3840360835830936</v>
+        <v>0.436457304422937</v>
       </c>
       <c r="C259">
-        <v>0.004441475002628878</v>
+        <v>0.00504773975721951</v>
       </c>
       <c r="D259">
-        <v>0.06144796716470127</v>
+        <v>0.0698356619532908</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>0.1437722834845835</v>
+        <v>0.170556572581746</v>
       </c>
       <c r="B260">
-        <v>0.3464729645731593</v>
+        <v>0.411019703503362</v>
       </c>
       <c r="C260">
-        <v>0.004007047975494334</v>
+        <v>0.00475354743144371</v>
       </c>
       <c r="D260">
-        <v>0.05543765354523434</v>
+        <v>0.0657655004948387</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>0.1396308539096596</v>
+        <v>0.160387339337861</v>
       </c>
       <c r="B261">
-        <v>0.3364926446699236</v>
+        <v>0.386513141431384</v>
       </c>
       <c r="C261">
-        <v>0.003891623036892517</v>
+        <v>0.00447012280678988</v>
       </c>
       <c r="D261">
-        <v>0.05384074534852176</v>
+        <v>0.0618443105705257</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>0.1059860268871154</v>
+        <v>0.120999983497557</v>
       </c>
       <c r="B262">
-        <v>0.2554128796517794</v>
+        <v>0.291594610446576</v>
       </c>
       <c r="C262">
-        <v>0.002953914928354343</v>
+        <v>0.00337236584936569</v>
       </c>
       <c r="D262">
-        <v>0.04086751978056902</v>
+        <v>0.0466568033944867</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>0.1036894122973172</v>
+        <v>0.111063149210654</v>
       </c>
       <c r="B263">
-        <v>0.249878329833666</v>
+        <v>0.267648100379324</v>
       </c>
       <c r="C263">
-        <v>0.002889906451758585</v>
+        <v>0.00309541836861968</v>
       </c>
       <c r="D263">
-        <v>0.03998196019376719</v>
+        <v>0.0428252249902056</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>0.08854068363011969</v>
+        <v>0.0914159510818986</v>
       </c>
       <c r="B264">
-        <v>0.2133718154789634</v>
+        <v>0.220300845287865</v>
       </c>
       <c r="C264">
-        <v>0.002467699326254346</v>
+        <v>0.00254783531868915</v>
       </c>
       <c r="D264">
-        <v>0.03414070935495093</v>
+        <v>0.0352493937061924</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>0.0820865596450579</v>
+        <v>0.0840496943989292</v>
       </c>
       <c r="B265">
-        <v>0.197818195430445</v>
+        <v>0.202549101148468</v>
       </c>
       <c r="C265">
-        <v>0.002287817753665256</v>
+        <v>0.00234253188180224</v>
       </c>
       <c r="D265">
-        <v>0.03165204129772967</v>
+        <v>0.0324090132377309</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>0.08176037918329553</v>
+        <v>0.0819234810185522</v>
       </c>
       <c r="B266">
-        <v>0.1970321418961088</v>
+        <v>0.19742519662835</v>
       </c>
       <c r="C266">
-        <v>0.002278726844574347</v>
+        <v>0.00228327262254298</v>
       </c>
       <c r="D266">
-        <v>0.03152626824193519</v>
+        <v>0.0315891592444038</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>0.07869640742164583</v>
+        <v>0.0785947215737969</v>
       </c>
       <c r="B267">
-        <v>0.1896483586390177</v>
+        <v>0.189403308645337</v>
       </c>
       <c r="C267">
-        <v>0.002193331512825257</v>
+        <v>0.0021904974473094</v>
       </c>
       <c r="D267">
-        <v>0.0303448207412218</v>
+        <v>0.0303056113423942</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>0.07837022695988344</v>
+        <v>0.0775316148836084</v>
       </c>
       <c r="B268">
-        <v>0.1888623051046814</v>
+        <v>0.186841356385278</v>
       </c>
       <c r="C268">
-        <v>0.002184240603734348</v>
+        <v>0.00216086781767977</v>
       </c>
       <c r="D268">
-        <v>0.03021904768542731</v>
+        <v>0.0298956843457307</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>0.07888088892015839</v>
+        <v>0.0777320392276715</v>
       </c>
       <c r="B269">
-        <v>0.1900929356475299</v>
+        <v>0.187324353629094</v>
       </c>
       <c r="C269">
-        <v>0.002198473159025863</v>
+        <v>0.00216645380367549</v>
       </c>
       <c r="D269">
-        <v>0.03041595560221288</v>
+        <v>0.0299729666638445</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>0.07683824107905861</v>
+        <v>0.0751584973677718</v>
       </c>
       <c r="B270">
-        <v>0.1851704134761359</v>
+        <v>0.181122444220399</v>
       </c>
       <c r="C270">
-        <v>0.002141542937859803</v>
+        <v>0.00209472714364323</v>
       </c>
       <c r="D270">
-        <v>0.02962832393507063</v>
+        <v>0.0289806257302836</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>0.07785956499960849</v>
+        <v>0.0762680838493569</v>
       </c>
       <c r="B271">
-        <v>0.1876316745618329</v>
+        <v>0.183796406881403</v>
       </c>
       <c r="C271">
-        <v>0.002170008048442833</v>
+        <v>0.00212565220205442</v>
       </c>
       <c r="D271">
-        <v>0.03002213976864175</v>
+        <v>0.0294084750309534</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>0.07734890303933353</v>
+        <v>0.0757132906085644</v>
       </c>
       <c r="B272">
-        <v>0.1864010440189844</v>
+        <v>0.182459425550901</v>
       </c>
       <c r="C272">
-        <v>0.002155775493151318</v>
+        <v>0.00211018967284883</v>
       </c>
       <c r="D272">
-        <v>0.02982523185185619</v>
+        <v>0.0291945503806185</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>0.07785956499960849</v>
+        <v>0.0759137149526274</v>
       </c>
       <c r="B273">
-        <v>0.1876316745618329</v>
+        <v>0.182942422794717</v>
       </c>
       <c r="C273">
-        <v>0.002170008048442833</v>
+        <v>0.00211577565884455</v>
       </c>
       <c r="D273">
-        <v>0.03002213976864175</v>
+        <v>0.0292718326987323</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>0.08073905526274562</v>
+        <v>0.0790420500533196</v>
       </c>
       <c r="B274">
-        <v>0.1945708808104117</v>
+        <v>0.190481313533914</v>
       </c>
       <c r="C274">
-        <v>0.002250261733991317</v>
+        <v>0.00220296484808241</v>
       </c>
       <c r="D274">
-        <v>0.03113245240836406</v>
+        <v>0.0304780982826281</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>0.08598737382874491</v>
+        <v>0.0843895581171819</v>
       </c>
       <c r="B275">
-        <v>0.2072186627647208</v>
+        <v>0.203368129595119</v>
       </c>
       <c r="C275">
-        <v>0.00239653654979677</v>
+        <v>0.00235200415414265</v>
       </c>
       <c r="D275">
-        <v>0.03315616977102311</v>
+        <v>0.0325400624678637</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>0.1003848251444306</v>
+        <v>0.100031233620643</v>
       </c>
       <c r="B276">
-        <v>0.241914694007615</v>
+        <v>0.241062583291103</v>
       </c>
       <c r="C276">
-        <v>0.002797804977539191</v>
+        <v>0.00278795010033195</v>
       </c>
       <c r="D276">
-        <v>0.03870773296963465</v>
+        <v>0.0385713903873429</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>0.1175762016527278</v>
+        <v>0.118708284642003</v>
       </c>
       <c r="B277">
-        <v>0.2833437305337115</v>
+        <v>0.286071906924393</v>
       </c>
       <c r="C277">
-        <v>0.00327694232420949</v>
+        <v>0.00330849437819598</v>
       </c>
       <c r="D277">
-        <v>0.04533661547559316</v>
+        <v>0.0457731392827052</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>0.1426253404211234</v>
+        <v>0.145922163797791</v>
       </c>
       <c r="B278">
-        <v>0.3437089772888074</v>
+        <v>0.351653903399065</v>
       </c>
       <c r="C278">
-        <v>0.003975081759412515</v>
+        <v>0.00406696685100914</v>
       </c>
       <c r="D278">
-        <v>0.05499539979056663</v>
+        <v>0.0562666333532937</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>0.1784545142480173</v>
+        <v>0.184847685980095</v>
       </c>
       <c r="B279">
-        <v>0.4300527410041697</v>
+        <v>0.445459473855261</v>
       </c>
       <c r="C279">
-        <v>0.004973669352007051</v>
+        <v>0.00515185213679086</v>
       </c>
       <c r="D279">
-        <v>0.068810895220465</v>
+        <v>0.0712760604870104</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>0.1931914973829269</v>
+        <v>0.201212604455492</v>
       </c>
       <c r="B280">
-        <v>0.4655670008591598</v>
+        <v>0.484896851364652</v>
       </c>
       <c r="C280">
-        <v>0.005384400801799777</v>
+        <v>0.00560795544026937</v>
       </c>
       <c r="D280">
-        <v>0.07449337967111148</v>
+        <v>0.0775862661730203</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>0.2172326635882342</v>
+        <v>0.22804014010163</v>
       </c>
       <c r="B281">
-        <v>0.5235031616063183</v>
+        <v>0.549547808991728</v>
       </c>
       <c r="C281">
-        <v>0.006054447239379169</v>
+        <v>0.00635566021196056</v>
       </c>
       <c r="D281">
-        <v>0.08376349634875425</v>
+        <v>0.0879307887094696</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>0.2260556158761582</v>
+        <v>0.23727120085104</v>
       </c>
       <c r="B282">
-        <v>0.5447653573605671</v>
+        <v>0.571793494366448</v>
       </c>
       <c r="C282">
-        <v>0.006300349942225227</v>
+        <v>0.00661293722245999</v>
       </c>
       <c r="D282">
-        <v>0.08716556912891227</v>
+        <v>0.0914902254470498</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>0.2256438703438703</v>
+        <v>0.237532610164977</v>
       </c>
       <c r="B283">
-        <v>0.5437731028608545</v>
+        <v>0.572423457651244</v>
       </c>
       <c r="C283">
-        <v>0.006288874266513713</v>
+        <v>0.00662022290810674</v>
       </c>
       <c r="D283">
-        <v>0.08700680274074246</v>
+        <v>0.0915910231712582</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>0.2086369753340856</v>
+        <v>0.21870161459095</v>
       </c>
       <c r="B284">
-        <v>0.50278864334327</v>
+        <v>0.527043147175083</v>
       </c>
       <c r="C284">
-        <v>0.005814878566044019</v>
+        <v>0.00609538807302855</v>
       </c>
       <c r="D284">
-        <v>0.080449055095775</v>
+        <v>0.0843299142617885</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>0.1534026470167436</v>
+        <v>0.1583395803618</v>
       </c>
       <c r="B285">
-        <v>0.3696809189996642</v>
+        <v>0.381578302073121</v>
       </c>
       <c r="C285">
-        <v>0.004275453872371908</v>
+        <v>0.00441305013422428</v>
       </c>
       <c r="D285">
-        <v>0.05915105882802515</v>
+        <v>0.061054708083123</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>0.108665485634457</v>
+        <v>0.109381875642339</v>
       </c>
       <c r="B286">
-        <v>0.2618700353228339</v>
+        <v>0.263596444362224</v>
       </c>
       <c r="C286">
-        <v>0.003028593576343592</v>
+        <v>0.00304855993607006</v>
       </c>
       <c r="D286">
-        <v>0.04190070157419199</v>
+        <v>0.0421769368825399</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>0.09838276117877212</v>
+        <v>0.097856151781409</v>
       </c>
       <c r="B287">
-        <v>0.2370899738276565</v>
+        <v>0.235820911984481</v>
       </c>
       <c r="C287">
-        <v>0.002742005861284199</v>
+        <v>0.00272732883822776</v>
       </c>
       <c r="D287">
-        <v>0.03793575017981221</v>
+        <v>0.037732693035437</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>0.1002409275213593</v>
+        <v>0.0998749004005161</v>
       </c>
       <c r="B288">
-        <v>0.2415679189905383</v>
+        <v>0.240685840062674</v>
       </c>
       <c r="C288">
-        <v>0.002793794436249653</v>
+        <v>0.00278359296905443</v>
       </c>
       <c r="D288">
-        <v>0.03865224698596339</v>
+        <v>0.038511109318663</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>0.08968815649663642</v>
+        <v>0.0884101615094591</v>
       </c>
       <c r="B289">
-        <v>0.2161370795214723</v>
+        <v>0.213057273725911</v>
       </c>
       <c r="C289">
-        <v>0.002499680308369049</v>
+        <v>0.00246406157086315</v>
       </c>
       <c r="D289">
-        <v>0.0345831673982172</v>
+        <v>0.0340903808776548</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>0.09001433695839882</v>
+        <v>0.0887645304061886</v>
       </c>
       <c r="B290">
-        <v>0.2169231330558087</v>
+        <v>0.213911257812597</v>
       </c>
       <c r="C290">
-        <v>0.002508771217459959</v>
+        <v>0.00247393811407303</v>
       </c>
       <c r="D290">
-        <v>0.0347089404540117</v>
+        <v>0.034227023209876</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>0.08707871280253737</v>
+        <v>0.0855752103356231</v>
       </c>
       <c r="B291">
-        <v>0.2098486512467821</v>
+        <v>0.20622540103242</v>
       </c>
       <c r="C291">
-        <v>0.002426953035641777</v>
+        <v>0.00238504922518414</v>
       </c>
       <c r="D291">
-        <v>0.0335769829518613</v>
+        <v>0.0329972422198854</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>0.084851583462925</v>
+        <v>0.0831556130283899</v>
       </c>
       <c r="B292">
-        <v>0.2044815520668758</v>
+        <v>0.200394478466596</v>
       </c>
       <c r="C292">
-        <v>0.002364881168275111</v>
+        <v>0.00231761312236603</v>
       </c>
       <c r="D292">
-        <v>0.03271821642372796</v>
+        <v>0.0320642613004319</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>0.08419922253940025</v>
+        <v>0.0824468752349309</v>
       </c>
       <c r="B293">
-        <v>0.2029094449982033</v>
+        <v>0.198686510293223</v>
       </c>
       <c r="C293">
-        <v>0.002346699350093293</v>
+        <v>0.00229786003594628</v>
       </c>
       <c r="D293">
-        <v>0.03246667031213899</v>
+        <v>0.0317909766359896</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>0.08354686161587548</v>
+        <v>0.0817381374414719</v>
       </c>
       <c r="B294">
-        <v>0.2013373379295307</v>
+        <v>0.196978542119851</v>
       </c>
       <c r="C294">
-        <v>0.002328517531911474</v>
+        <v>0.00227810694952653</v>
       </c>
       <c r="D294">
-        <v>0.03221512420055001</v>
+        <v>0.0315176919715472</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>0.08336238011736291</v>
+        <v>0.0815377130974089</v>
       </c>
       <c r="B295">
-        <v>0.2008927609210185</v>
+        <v>0.196495544876035</v>
       </c>
       <c r="C295">
-        <v>0.002323375885710869</v>
+        <v>0.00227252096353081</v>
       </c>
       <c r="D295">
-        <v>0.03214398933955894</v>
+        <v>0.0314404096534335</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>0.08183039423653807</v>
+        <v>0.0798733333750313</v>
       </c>
       <c r="B296">
-        <v>0.197200869292473</v>
+        <v>0.192484600884529</v>
       </c>
       <c r="C296">
-        <v>0.002280678219836324</v>
+        <v>0.00222613337591402</v>
       </c>
       <c r="D296">
-        <v>0.03155326558920225</v>
+        <v>0.0307986357024287</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>0.08336238011736291</v>
+        <v>0.0815377130974089</v>
       </c>
       <c r="B297">
-        <v>0.2008927609210185</v>
+        <v>0.196495544876035</v>
       </c>
       <c r="C297">
-        <v>0.002323375885710869</v>
+        <v>0.00227252096353081</v>
       </c>
       <c r="D297">
-        <v>0.03214398933955894</v>
+        <v>0.0314404096534335</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>0.09236981390379943</v>
+        <v>0.0913235670876115</v>
       </c>
       <c r="B298">
-        <v>0.2225995336837794</v>
+        <v>0.220078211581257</v>
       </c>
       <c r="C298">
-        <v>0.002574420234757533</v>
+        <v>0.00254526050323583</v>
       </c>
       <c r="D298">
-        <v>0.03561719698070801</v>
+        <v>0.0352137710413485</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>0.09339113782434934</v>
+        <v>0.0924331535691966</v>
       </c>
       <c r="B299">
-        <v>0.2250607947694764</v>
+        <v>0.222752174242261</v>
       </c>
       <c r="C299">
-        <v>0.002602885345340563</v>
+        <v>0.00257618556164702</v>
       </c>
       <c r="D299">
-        <v>0.03601101281427914</v>
+        <v>0.0356416203420184</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>0.0971074705095238</v>
+        <v>0.0964706508074108</v>
       </c>
       <c r="B300">
-        <v>0.2340166850952401</v>
+        <v>0.232482030398646</v>
       </c>
       <c r="C300">
-        <v>0.002706462495271471</v>
+        <v>0.00268871382330035</v>
       </c>
       <c r="D300">
-        <v>0.0374440064265815</v>
+        <v>0.0371984529084703</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>0.1084409500635597</v>
+        <v>0.108783566866117</v>
       </c>
       <c r="B301">
-        <v>0.2613289330810432</v>
+        <v>0.262154596111617</v>
       </c>
       <c r="C301">
-        <v>0.003022335591264802</v>
+        <v>0.00303188459425607</v>
       </c>
       <c r="D301">
-        <v>0.04181412212447966</v>
+        <v>0.0419462329259399</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>0.1355621678508563</v>
+        <v>0.138248593597994</v>
       </c>
       <c r="B302">
-        <v>0.3266876274124617</v>
+        <v>0.333161572669208</v>
       </c>
       <c r="C302">
-        <v>0.003778225517984794</v>
+        <v>0.00385309834180371</v>
       </c>
       <c r="D302">
-        <v>0.05227188657654261</v>
+        <v>0.0533077547997861</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>0.1443690403184406</v>
+        <v>0.147816553809691</v>
       </c>
       <c r="B303">
-        <v>0.3479110728395412</v>
+        <v>0.356219143009739</v>
       </c>
       <c r="C303">
-        <v>0.004023680063439338</v>
+        <v>0.00411976500847038</v>
       </c>
       <c r="D303">
-        <v>0.05566775908299378</v>
+        <v>0.0569970977697577</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>0.1430348872935899</v>
+        <v>0.146721472506583</v>
       </c>
       <c r="B304">
-        <v>0.3446959332972675</v>
+        <v>0.35358013598877</v>
       </c>
       <c r="C304">
-        <v>0.003986496156724795</v>
+        <v>0.00408924422092865</v>
       </c>
       <c r="D304">
-        <v>0.0551533183898686</v>
+        <v>0.0565748415711762</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>0.1961993352518522</v>
+        <v>0.204480378930374</v>
       </c>
       <c r="B305">
-        <v>0.472815508555803</v>
+        <v>0.492771773306684</v>
       </c>
       <c r="C305">
-        <v>0.005468231637279168</v>
+        <v>0.00569903091585192</v>
       </c>
       <c r="D305">
-        <v>0.07565318230939677</v>
+        <v>0.0788462986689352</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>0.1919589892489413</v>
+        <v>0.19987358327289</v>
       </c>
       <c r="B306">
-        <v>0.4625968126094314</v>
+        <v>0.481669980179762</v>
       </c>
       <c r="C306">
-        <v>0.005350049819097351</v>
+        <v>0.00557063585412353</v>
       </c>
       <c r="D306">
-        <v>0.07401813258406842</v>
+        <v>0.07706994835006</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>0.1975896221694273</v>
+        <v>0.205990814100085</v>
       </c>
       <c r="B307">
-        <v>0.4761659236585246</v>
+        <v>0.49641173045532</v>
       </c>
       <c r="C307">
-        <v>0.005506980040263411</v>
+        <v>0.00574112794625456</v>
       </c>
       <c r="D307">
-        <v>0.07618926786495006</v>
+        <v>0.0794287126058326</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>0.179350219025657</v>
+        <v>0.186175166240186</v>
       </c>
       <c r="B308">
-        <v>0.4322112758912119</v>
+        <v>0.448658532880956</v>
       </c>
       <c r="C308">
-        <v>0.004998633357091291</v>
+        <v>0.0051888500682404</v>
       </c>
       <c r="D308">
-        <v>0.06915627313293955</v>
+        <v>0.0717879282056237</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>0.164115925287934</v>
+        <v>0.169269959702474</v>
       </c>
       <c r="B309">
-        <v>0.395498560571133</v>
+        <v>0.407919129681097</v>
       </c>
       <c r="C309">
-        <v>0.004574041464966446</v>
+        <v>0.00471768850642576</v>
       </c>
       <c r="D309">
-        <v>0.06328202896174796</v>
+        <v>0.0652693909713672</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>0.1239741917450653</v>
+        <v>0.125659187458369</v>
       </c>
       <c r="B310">
-        <v>0.2987620750217822</v>
+        <v>0.302822700936124</v>
       </c>
       <c r="C310">
-        <v>0.003455259400528881</v>
+        <v>0.00350222157222198</v>
       </c>
       <c r="D310">
-        <v>0.04780363867038633</v>
+        <v>0.0484533620128509</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>0.1109670273469547</v>
+        <v>0.11152794712462</v>
       </c>
       <c r="B311">
-        <v>0.2674164588816096</v>
+        <v>0.268768204388776</v>
       </c>
       <c r="C311">
-        <v>0.003092739375770703</v>
+        <v>0.00310837265643532</v>
       </c>
       <c r="D311">
-        <v>0.04278816102732808</v>
+        <v>0.0430044480302691</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>0.1006120891782059</v>
+        <v>0.100278137756102</v>
       </c>
       <c r="B312">
-        <v>0.2424623714988154</v>
+        <v>0.241657590935864</v>
       </c>
       <c r="C312">
-        <v>0.002804139007050099</v>
+        <v>0.00279483151510923</v>
       </c>
       <c r="D312">
-        <v>0.03879536449681338</v>
+        <v>0.038666595009463</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>0.09722193695479378</v>
+        <v>0.0965950094146177</v>
       </c>
       <c r="B313">
-        <v>0.234292534707388</v>
+        <v>0.232781718866165</v>
       </c>
       <c r="C313">
-        <v>0.0027096527662101</v>
+        <v>0.00269217979666577</v>
       </c>
       <c r="D313">
-        <v>0.0374881439403055</v>
+        <v>0.0372464047752322</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>0.09568995107396897</v>
+        <v>0.0949306296922401</v>
       </c>
       <c r="B314">
-        <v>0.2306006430788425</v>
+        <v>0.228770774874658</v>
       </c>
       <c r="C314">
-        <v>0.002666955100335555</v>
+        <v>0.00264579220904899</v>
       </c>
       <c r="D314">
-        <v>0.03689742018994882</v>
+        <v>0.0366046308242274</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>0.08737766074631996</v>
+        <v>0.0858999932868931</v>
       </c>
       <c r="B315">
-        <v>0.2105690778674423</v>
+        <v>0.207008086743755</v>
       </c>
       <c r="C315">
-        <v>0.002435284952781012</v>
+        <v>0.00239410118454528</v>
       </c>
       <c r="D315">
-        <v>0.03369225532657639</v>
+        <v>0.033122476404761</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>0.08603015636400768</v>
+        <v>0.0844360379085785</v>
       </c>
       <c r="B316">
-        <v>0.207321763247409</v>
+        <v>0.203480139996064</v>
       </c>
       <c r="C316">
-        <v>0.002397728933107073</v>
+        <v>0.00235329958292422</v>
       </c>
       <c r="D316">
-        <v>0.03317266643721077</v>
+        <v>0.03255798477187</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>0.0827817031038454</v>
+        <v>0.0809068541197602</v>
       </c>
       <c r="B317">
-        <v>0.1994934029818057</v>
+        <v>0.194975254769236</v>
       </c>
       <c r="C317">
-        <v>0.002307191955157377</v>
+        <v>0.00225493842169492</v>
       </c>
       <c r="D317">
-        <v>0.03192008407550631</v>
+        <v>0.0311971545517466</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>0.08551949440373273</v>
+        <v>0.0838812446677859</v>
       </c>
       <c r="B318">
-        <v>0.2060911327045605</v>
+        <v>0.202143158665562</v>
       </c>
       <c r="C318">
-        <v>0.002383496377815558</v>
+        <v>0.00233783705371862</v>
       </c>
       <c r="D318">
-        <v>0.0329757585204252</v>
+        <v>0.0323440601215351</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>0.08296618460235797</v>
+        <v>0.0811072784638232</v>
       </c>
       <c r="B319">
-        <v>0.199937979990318</v>
+        <v>0.195458252013052</v>
       </c>
       <c r="C319">
-        <v>0.002312333601357983</v>
+        <v>0.00226052440769064</v>
       </c>
       <c r="D319">
-        <v>0.03199121893649739</v>
+        <v>0.0312744368698604</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>0.08500883244345778</v>
+        <v>0.0833264514269934</v>
       </c>
       <c r="B320">
-        <v>0.204860502161712</v>
+        <v>0.20080617733506</v>
       </c>
       <c r="C320">
-        <v>0.002369263822524043</v>
+        <v>0.00232237452451302</v>
       </c>
       <c r="D320">
-        <v>0.03277885060363964</v>
+        <v>0.0321301354712001</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>0.08500883244345778</v>
+        <v>0.0833264514269934</v>
       </c>
       <c r="B321">
-        <v>0.204860502161712</v>
+        <v>0.20080617733506</v>
       </c>
       <c r="C321">
-        <v>0.002369263822524043</v>
+        <v>0.00232237452451302</v>
       </c>
       <c r="D321">
-        <v>0.03277885060363964</v>
+        <v>0.0321301354712001</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>0.09587443257248153</v>
+        <v>0.0954854229330327</v>
       </c>
       <c r="B322">
-        <v>0.2310452200873548</v>
+        <v>0.230107756205161</v>
       </c>
       <c r="C322">
-        <v>0.002672096746536161</v>
+        <v>0.00266125473825458</v>
       </c>
       <c r="D322">
-        <v>0.0369685550509399</v>
+        <v>0.0368185554745623</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>0.1111515088454672</v>
+        <v>0.112082740365412</v>
       </c>
       <c r="B323">
-        <v>0.2678610358901218</v>
+        <v>0.270105185719278</v>
       </c>
       <c r="C323">
-        <v>0.003097881021971309</v>
+        <v>0.00312383518564092</v>
       </c>
       <c r="D323">
-        <v>0.04285929588831915</v>
+        <v>0.043218372680604</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>0.1385133420240007</v>
+        <v>0.142517914204685</v>
       </c>
       <c r="B324">
-        <v>0.3337995827905003</v>
+        <v>0.343450093735037</v>
       </c>
       <c r="C324">
-        <v>0.003860477091161604</v>
+        <v>0.00397208770525506</v>
       </c>
       <c r="D324">
-        <v>0.05340984006380126</v>
+        <v>0.054953976943101</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>0.1591937871836971</v>
+        <v>0.165694296122259</v>
       </c>
       <c r="B325">
-        <v>0.3836368321511602</v>
+        <v>0.399302234053324</v>
       </c>
       <c r="C325">
-        <v>0.004436857558251904</v>
+        <v>0.00461803191641489</v>
       </c>
       <c r="D325">
-        <v>0.06138408465488341</v>
+        <v>0.0638906384472375</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>0.1831788194962801</v>
+        <v>0.194232691282172</v>
       </c>
       <c r="B326">
-        <v>0.441437717337871</v>
+        <v>0.468076146072851</v>
       </c>
       <c r="C326">
-        <v>0.005105339499561596</v>
+        <v>0.00541341970450444</v>
       </c>
       <c r="D326">
-        <v>0.0706325564700981</v>
+        <v>0.074894857238698</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>0.2001268521504624</v>
+        <v>0.215834688804194</v>
       </c>
       <c r="B327">
-        <v>0.4822803260455978</v>
+        <v>0.520134219720682</v>
       </c>
       <c r="C327">
-        <v>0.005577694659329472</v>
+        <v>0.00601548456943744</v>
       </c>
       <c r="D327">
-        <v>0.07716760717517103</v>
+        <v>0.0832244464021011</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>0.2203928233149928</v>
+        <v>0.23076466225823</v>
       </c>
       <c r="B328">
-        <v>0.5311187456571355</v>
+        <v>0.556113561762453</v>
       </c>
       <c r="C328">
-        <v>0.006142523406276138</v>
+        <v>0.00643159481303382</v>
       </c>
       <c r="D328">
-        <v>0.08498203330061696</v>
+        <v>0.0889813466593967</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>0.2468028178231623</v>
+        <v>0.25910263307408</v>
       </c>
       <c r="B329">
-        <v>0.5947634821100243</v>
+        <v>0.624404476538164</v>
       </c>
       <c r="C329">
-        <v>0.006878590974112499</v>
+        <v>0.00722139661512764</v>
       </c>
       <c r="D329">
-        <v>0.09516555470119648</v>
+        <v>0.0999082831327434</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>0.2518238723553863</v>
+        <v>0.264557605899212</v>
       </c>
       <c r="B330">
-        <v>0.606863586573133</v>
+        <v>0.637550269041295</v>
       </c>
       <c r="C330">
-        <v>0.007018531760407043</v>
+        <v>0.00737343104962048</v>
       </c>
       <c r="D330">
-        <v>0.0971016405366768</v>
+        <v>0.10201168502808</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>0.2479097068142378</v>
+        <v>0.260659548035188</v>
       </c>
       <c r="B331">
-        <v>0.5974309441610979</v>
+        <v>0.628156444087746</v>
       </c>
       <c r="C331">
-        <v>0.006909440851316137</v>
+        <v>0.00726478907431184</v>
       </c>
       <c r="D331">
-        <v>0.09559236386714297</v>
+        <v>0.100508619373647</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>0.2338678671381156</v>
+        <v>0.245404216041376</v>
       </c>
       <c r="B332">
-        <v>0.5635918918574685</v>
+        <v>0.591393029239358</v>
       </c>
       <c r="C332">
-        <v>0.006518083603015531</v>
+        <v>0.00683961082924451</v>
       </c>
       <c r="D332">
-        <v>0.09017792219427315</v>
+        <v>0.0946262629883071</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>0.2132035017987589</v>
+        <v>0.223308410248434</v>
       </c>
       <c r="B333">
-        <v>0.5137933928239778</v>
+        <v>0.538144940302005</v>
       </c>
       <c r="C333">
-        <v>0.005942151293316746</v>
+        <v>0.00622378313475695</v>
       </c>
       <c r="D333">
-        <v>0.08220987787689783</v>
+        <v>0.0861062645806637</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>0.1651506005659454</v>
+        <v>0.171102789155995</v>
       </c>
       <c r="B334">
-        <v>0.3979919967345893</v>
+        <v>0.412336016155509</v>
       </c>
       <c r="C334">
-        <v>0.00460287868850887</v>
+        <v>0.00476877092212617</v>
       </c>
       <c r="D334">
-        <v>0.06368099299155949</v>
+        <v>0.0659761180385678</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>0.1381577303844371</v>
+        <v>0.141777201798307</v>
       </c>
       <c r="B335">
-        <v>0.3329426038512353</v>
+        <v>0.341665070800754</v>
       </c>
       <c r="C335">
-        <v>0.003850565911719786</v>
+        <v>0.00395144346092321</v>
       </c>
       <c r="D335">
-        <v>0.05327271853805952</v>
+        <v>0.0546683630767406</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>0.116923840729203</v>
+        <v>0.118353915745273</v>
       </c>
       <c r="B336">
-        <v>0.281771623465039</v>
+        <v>0.285217922837706</v>
       </c>
       <c r="C336">
-        <v>0.003258760506027671</v>
+        <v>0.0032986178349861</v>
       </c>
       <c r="D336">
-        <v>0.04508506936400418</v>
+        <v>0.045636496950484</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>0.1050369166796294</v>
+        <v>0.105439726654379</v>
       </c>
       <c r="B337">
-        <v>0.2531256444536992</v>
+        <v>0.254096365393288</v>
       </c>
       <c r="C337">
-        <v>0.002927462471432523</v>
+        <v>0.00293868910604322</v>
       </c>
       <c r="D337">
-        <v>0.0405015490831328</v>
+        <v>0.0406568699786731</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>0.09141683617972741</v>
+        <v>0.416924948965756</v>
       </c>
       <c r="B338">
-        <v>0.2203029782613512</v>
+        <v>1.00473623685728</v>
       </c>
       <c r="C338">
-        <v>0.00254785998707013</v>
+        <v>0.0116200301768557</v>
       </c>
       <c r="D338">
-        <v>0.03524973499413468</v>
+        <v>0.160763537414404</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>0.09141683617972741</v>
+        <v>0.304319444753111</v>
       </c>
       <c r="B339">
-        <v>0.2203029782613512</v>
+        <v>0.733371256582804</v>
       </c>
       <c r="C339">
-        <v>0.00254785998707013</v>
+        <v>0.00848162514670131</v>
       </c>
       <c r="D339">
-        <v>0.03524973499413468</v>
+        <v>0.11734359040844</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>0.09141683617972741</v>
+        <v>0.289310842266417</v>
       </c>
       <c r="B340">
-        <v>0.2203029782613512</v>
+        <v>0.697202428547026</v>
       </c>
       <c r="C340">
-        <v>0.00254785998707013</v>
+        <v>0.00806332344938038</v>
       </c>
       <c r="D340">
-        <v>0.03524973499413468</v>
+        <v>0.111556371309672</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>0.09141683617972741</v>
+        <v>0.281327780681197</v>
       </c>
       <c r="B341">
-        <v>0.2203029782613512</v>
+        <v>0.677964262839671</v>
       </c>
       <c r="C341">
-        <v>0.00254785998707013</v>
+        <v>0.00784082916892519</v>
       </c>
       <c r="D341">
-        <v>0.03524973499413468</v>
+        <v>0.108478154899211</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>0.09141683617972741</v>
+        <v>0.229829085763253</v>
       </c>
       <c r="B342">
-        <v>0.2203029782613512</v>
+        <v>0.553858941094664</v>
       </c>
       <c r="C342">
-        <v>0.00254785998707013</v>
+        <v>0.00640551955145172</v>
       </c>
       <c r="D342">
-        <v>0.03524973499413468</v>
+        <v>0.0886205944731163</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>0.09141683617972741</v>
+        <v>0.197141752358694</v>
       </c>
       <c r="B343">
-        <v>0.2203029782613512</v>
+        <v>0.475086614230403</v>
       </c>
       <c r="C343">
-        <v>0.00254785998707013</v>
+        <v>0.00549449755215871</v>
       </c>
       <c r="D343">
-        <v>0.03524973499413468</v>
+        <v>0.0760165721909369</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>0.09141683617972741</v>
+        <v>0.173105012647148</v>
       </c>
       <c r="B344">
-        <v>0.2203029782613512</v>
+        <v>0.417161120771673</v>
       </c>
       <c r="C344">
-        <v>0.00254785998707013</v>
+        <v>0.00482457448448367</v>
       </c>
       <c r="D344">
-        <v>0.03524973499413468</v>
+        <v>0.0667481623403791</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>0.09141683617972741</v>
+        <v>0.224981251096931</v>
       </c>
       <c r="B345">
-        <v>0.2203029782613512</v>
+        <v>0.5421762745341</v>
       </c>
       <c r="C345">
-        <v>0.00254785998707013</v>
+        <v>0.00627040654069327</v>
       </c>
       <c r="D345">
-        <v>0.03524973499413468</v>
+        <v>0.0867513010866412</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>0.09141683617972741</v>
+        <v>0.354105531923629</v>
       </c>
       <c r="B346">
-        <v>0.2203029782613512</v>
+        <v>0.853349410914037</v>
       </c>
       <c r="C346">
-        <v>0.00254785998707013</v>
+        <v>0.00986920302311308</v>
       </c>
       <c r="D346">
-        <v>0.03524973499413468</v>
+        <v>0.136540780472044</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>0.09141683617972741</v>
+        <v>0.54358153498135</v>
       </c>
       <c r="B347">
-        <v>0.2203029782613512</v>
+        <v>1.3099625417886</v>
       </c>
       <c r="C347">
-        <v>0.00254785998707013</v>
+        <v>0.0151500500407416</v>
       </c>
       <c r="D347">
-        <v>0.03524973499413468</v>
+        <v>0.209601489796982</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>0.09141683617972741</v>
+        <v>0.727306830105589</v>
       </c>
       <c r="B348">
-        <v>0.2203029782613512</v>
+        <v>1.7527171960652</v>
       </c>
       <c r="C348">
-        <v>0.00254785998707013</v>
+        <v>0.0202706202510187</v>
       </c>
       <c r="D348">
-        <v>0.03524973499413468</v>
+        <v>0.280444763700228</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>0.09141683617972741</v>
+        <v>0.87793434075413</v>
       </c>
       <c r="B349">
-        <v>0.2203029782613512</v>
+        <v>2.11571038846498</v>
       </c>
       <c r="C349">
-        <v>0.00254785998707013</v>
+        <v>0.0244687288639539</v>
       </c>
       <c r="D349">
-        <v>0.03524973499413468</v>
+        <v>0.33852574806889</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>0.09141683617972741</v>
+        <v>1.01941883551364</v>
       </c>
       <c r="B350">
-        <v>0.2203029782613512</v>
+        <v>2.45667007243438</v>
       </c>
       <c r="C350">
-        <v>0.00254785998707013</v>
+        <v>0.0284120143467272</v>
       </c>
       <c r="D350">
-        <v>0.03524973499413468</v>
+        <v>0.393081245223118</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>0.09141683617972741</v>
+        <v>1.09683082014031</v>
       </c>
       <c r="B351">
-        <v>0.2203029782613512</v>
+        <v>2.64322313507647</v>
       </c>
       <c r="C351">
-        <v>0.00254785998707013</v>
+        <v>0.0305695479739272</v>
       </c>
       <c r="D351">
-        <v>0.03524973499413468</v>
+        <v>0.422930800923072</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>0.09141683617972741</v>
+        <v>1.135520358684</v>
       </c>
       <c r="B352">
-        <v>0.2203029782613512</v>
+        <v>2.73646001489995</v>
       </c>
       <c r="C352">
-        <v>0.00254785998707013</v>
+        <v>0.0316478562078707</v>
       </c>
       <c r="D352">
-        <v>0.03524973499413468</v>
+        <v>0.437849234306931</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>0.09141683617972741</v>
+        <v>1.20936492544335</v>
       </c>
       <c r="B353">
-        <v>0.2203029782613512</v>
+        <v>2.9144160530363</v>
       </c>
       <c r="C353">
-        <v>0.00254785998707013</v>
+        <v>0.0337059630596413</v>
       </c>
       <c r="D353">
-        <v>0.03524973499413468</v>
+        <v>0.466323216975794</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>0.09141683617972741</v>
+        <v>1.23815636103433</v>
       </c>
       <c r="B354">
-        <v>0.2203029782613512</v>
+        <v>2.98379976039456</v>
       </c>
       <c r="C354">
-        <v>0.00254785998707013</v>
+        <v>0.0345084032859507</v>
       </c>
       <c r="D354">
-        <v>0.03524973499413468</v>
+        <v>0.477425006504883</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>0.09141683617972741</v>
+        <v>1.23014597574082</v>
       </c>
       <c r="B355">
-        <v>0.2203029782613512</v>
+        <v>2.96449574801644</v>
       </c>
       <c r="C355">
-        <v>0.00254785998707013</v>
+        <v>0.0342851474719972</v>
       </c>
       <c r="D355">
-        <v>0.03524973499413468</v>
+        <v>0.474336254250954</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>0.09141683617972741</v>
+        <v>1.16424597919638</v>
       </c>
       <c r="B356">
-        <v>0.2203029782613512</v>
+        <v>2.80568511626793</v>
       </c>
       <c r="C356">
-        <v>0.00254785998707013</v>
+        <v>0.0324484621155544</v>
       </c>
       <c r="D356">
-        <v>0.03524973499413468</v>
+        <v>0.448925645971546</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>0.09141683617972741</v>
+        <v>1.10058950396569</v>
       </c>
       <c r="B357">
-        <v>0.2203029782613512</v>
+        <v>2.65228108627756</v>
       </c>
       <c r="C357">
-        <v>0.00254785998707013</v>
+        <v>0.0306743054838447</v>
       </c>
       <c r="D357">
-        <v>0.03524973499413468</v>
+        <v>0.424380124858445</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>0.09141683617972741</v>
+        <v>0.918445781878417</v>
       </c>
       <c r="B358">
-        <v>0.2203029782613512</v>
+        <v>2.21333782238529</v>
       </c>
       <c r="C358">
-        <v>0.00254785998707013</v>
+        <v>0.0255978149729523</v>
       </c>
       <c r="D358">
-        <v>0.03524973499413468</v>
+        <v>0.354146695189113</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>0.09141683617972741</v>
+        <v>0.781289375880918</v>
       </c>
       <c r="B359">
-        <v>0.2203029782613512</v>
+        <v>1.88280828328084</v>
       </c>
       <c r="C359">
-        <v>0.00254785998707013</v>
+        <v>0.0217751567688953</v>
       </c>
       <c r="D359">
-        <v>0.03524973499413468</v>
+        <v>0.301260080795079</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>0.09141683617972741</v>
+        <v>0.572164953121253</v>
       </c>
       <c r="B360">
-        <v>0.2203029782613512</v>
+        <v>1.3788449534784</v>
       </c>
       <c r="C360">
-        <v>0.00254785998707013</v>
+        <v>0.0159466926551192</v>
       </c>
       <c r="D360">
-        <v>0.03524973499413468</v>
+        <v>0.220623069155485</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>0.09141683617972741</v>
+        <v>0.441913625530042</v>
       </c>
       <c r="B361">
-        <v>0.2203029782613512</v>
+        <v>1.06495577737057</v>
       </c>
       <c r="C361">
-        <v>0.00254785998707013</v>
+        <v>0.0123164844823056</v>
       </c>
       <c r="D361">
-        <v>0.03524973499413468</v>
+        <v>0.170399007898347</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>0.09141683617972741</v>
+        <v>0.363680738761088</v>
       </c>
       <c r="B362">
-        <v>0.2203029782613512</v>
+        <v>0.876424444703365</v>
       </c>
       <c r="C362">
-        <v>0.00254785998707013</v>
+        <v>0.0101360716590077</v>
       </c>
       <c r="D362">
-        <v>0.03524973499413468</v>
+        <v>0.140232917693583</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>0.09141683617972741</v>
+        <v>0.330238318292849</v>
       </c>
       <c r="B363">
-        <v>0.2203029782613512</v>
+        <v>0.795832453804262</v>
       </c>
       <c r="C363">
-        <v>0.00254785998707013</v>
+        <v>0.00920400478224239</v>
       </c>
       <c r="D363">
-        <v>0.03524973499413468</v>
+        <v>0.127337738771068</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>0.09141683617972741</v>
+        <v>0.256185734082425</v>
       </c>
       <c r="B364">
-        <v>0.2203029782613512</v>
+        <v>0.617375119999444</v>
       </c>
       <c r="C364">
-        <v>0.00254785998707013</v>
+        <v>0.00714010031854009</v>
       </c>
       <c r="D364">
-        <v>0.03524973499413468</v>
+        <v>0.0987835459316183</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>0.09141683617972741</v>
+        <v>0.189273569437654</v>
       </c>
       <c r="B365">
-        <v>0.2203029782613512</v>
+        <v>0.456125291530476</v>
       </c>
       <c r="C365">
-        <v>0.00254785998707013</v>
+        <v>0.00527520503151127</v>
       </c>
       <c r="D365">
-        <v>0.03524973499413468</v>
+        <v>0.0729826522431194</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>0.09141683617972741</v>
+        <v>0.188835794658221</v>
       </c>
       <c r="B366">
-        <v>0.2203029782613512</v>
+        <v>0.455070309847155</v>
       </c>
       <c r="C366">
-        <v>0.00254785998707013</v>
+        <v>0.00526300389996398</v>
       </c>
       <c r="D366">
-        <v>0.03524973499413468</v>
+        <v>0.0728138491472456</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>0.09141683617972741</v>
+        <v>0.16210160280721</v>
       </c>
       <c r="B367">
-        <v>0.2203029782613512</v>
+        <v>0.390644298924955</v>
       </c>
       <c r="C367">
-        <v>0.00254785998707013</v>
+        <v>0.00451790069413949</v>
       </c>
       <c r="D367">
-        <v>0.03524973499413468</v>
+        <v>0.0625053193685759</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>0.09141683617972741</v>
+        <v>0.133972115493021</v>
       </c>
       <c r="B368">
-        <v>0.2203029782613512</v>
+        <v>0.322855802940501</v>
       </c>
       <c r="C368">
-        <v>0.00254785998707013</v>
+        <v>0.00373390949317826</v>
       </c>
       <c r="D368">
-        <v>0.03524973499413468</v>
+        <v>0.0516587727718786</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>0.09141683617972741</v>
+        <v>0.176732661762065</v>
       </c>
       <c r="B369">
-        <v>0.2203029782613512</v>
+        <v>0.425903294943312</v>
       </c>
       <c r="C369">
-        <v>0.00254785998707013</v>
+        <v>0.00492567995272429</v>
       </c>
       <c r="D369">
-        <v>0.03524973499413468</v>
+        <v>0.0681469601471762</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>0.09141683617972741</v>
+        <v>0.252005431523895</v>
       </c>
       <c r="B370">
-        <v>0.2203029782613512</v>
+        <v>0.607301121137056</v>
       </c>
       <c r="C370">
-        <v>0.00254785998707013</v>
+        <v>0.00702359195894443</v>
       </c>
       <c r="D370">
-        <v>0.03524973499413468</v>
+        <v>0.0971716485663039</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>0.09141683617972741</v>
+        <v>0.49588001525909</v>
       </c>
       <c r="B371">
-        <v>0.2203029782613512</v>
+        <v>1.19500793056419</v>
       </c>
       <c r="C371">
-        <v>0.00254785998707013</v>
+        <v>0.0138205707183131</v>
       </c>
       <c r="D371">
-        <v>0.03524973499413468</v>
+        <v>0.191208095327266</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>0.09141683617972741</v>
+        <v>0.714639876103807</v>
       </c>
       <c r="B372">
-        <v>0.2203029782613512</v>
+        <v>1.72219144382186</v>
       </c>
       <c r="C372">
-        <v>0.00254785998707013</v>
+        <v>0.0199175821607949</v>
       </c>
       <c r="D372">
-        <v>0.03524973499413468</v>
+        <v>0.275560468964105</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>0.09141683617972741</v>
+        <v>0.855856122164649</v>
       </c>
       <c r="B373">
-        <v>0.2203029782613512</v>
+        <v>2.0625046824569</v>
       </c>
       <c r="C373">
-        <v>0.00254785998707013</v>
+        <v>0.0238533913388252</v>
       </c>
       <c r="D373">
-        <v>0.03524973499413468</v>
+        <v>0.330012531172041</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>0.09141683617972741</v>
+        <v>0.969057759575481</v>
       </c>
       <c r="B374">
-        <v>0.2203029782613512</v>
+        <v>2.33530626811491</v>
       </c>
       <c r="C374">
-        <v>0.00254785998707013</v>
+        <v>0.0270084110757021</v>
       </c>
       <c r="D374">
-        <v>0.03524973499413468</v>
+        <v>0.373662343245923</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>0.09141683617972741</v>
+        <v>1.03337618308295</v>
       </c>
       <c r="B375">
-        <v>0.2203029782613512</v>
+        <v>2.49030550947909</v>
       </c>
       <c r="C375">
-        <v>0.00254785998707013</v>
+        <v>0.0288010167327601</v>
       </c>
       <c r="D375">
-        <v>0.03524973499413468</v>
+        <v>0.398463107291416</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>0.09141683617972741</v>
+        <v>1.10092297229622</v>
       </c>
       <c r="B376">
-        <v>0.2203029782613512</v>
+        <v>2.65308470265109</v>
       </c>
       <c r="C376">
-        <v>0.00254785998707013</v>
+        <v>0.0306835995116388</v>
       </c>
       <c r="D376">
-        <v>0.03524973499413468</v>
+        <v>0.424508708068839</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>0.09141683617972741</v>
+        <v>1.15981916781647</v>
       </c>
       <c r="B377">
-        <v>0.2203029782613512</v>
+        <v>2.79501706241757</v>
       </c>
       <c r="C377">
-        <v>0.00254785998707013</v>
+        <v>0.0323250833588996</v>
       </c>
       <c r="D377">
-        <v>0.03524973499413468</v>
+        <v>0.447218696414639</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>0.09141683617972741</v>
+        <v>1.20089443004638</v>
       </c>
       <c r="B378">
-        <v>0.2203029782613512</v>
+        <v>2.89400323367737</v>
       </c>
       <c r="C378">
-        <v>0.00254785998707013</v>
+        <v>0.0334698836108822</v>
       </c>
       <c r="D378">
-        <v>0.03524973499413468</v>
+        <v>0.463057049270916</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>0.09141683617972741</v>
+        <v>1.18254816702072</v>
       </c>
       <c r="B379">
-        <v>0.2203029782613512</v>
+        <v>2.84979106715071</v>
       </c>
       <c r="C379">
-        <v>0.00254785998707013</v>
+        <v>0.0329585586577473</v>
       </c>
       <c r="D379">
-        <v>0.03524973499413468</v>
+        <v>0.455982850066344</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>0.09141683617972741</v>
+        <v>1.09215191610802</v>
       </c>
       <c r="B380">
-        <v>0.2203029782613512</v>
+        <v>2.63194756991376</v>
       </c>
       <c r="C380">
-        <v>0.00254785998707013</v>
+        <v>0.0304391431943985</v>
       </c>
       <c r="D380">
-        <v>0.03524973499413468</v>
+        <v>0.421126646085805</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>0.09141683617972741</v>
+        <v>1.05607227474791</v>
       </c>
       <c r="B381">
-        <v>0.2203029782613512</v>
+        <v>2.54500021121709</v>
       </c>
       <c r="C381">
-        <v>0.00254785998707013</v>
+        <v>0.029433574872295</v>
       </c>
       <c r="D381">
-        <v>0.03524973499413468</v>
+        <v>0.407214572010884</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>0.09141683617972741</v>
+        <v>0.946033187964268</v>
       </c>
       <c r="B382">
-        <v>0.2203029782613512</v>
+        <v>2.27981997137664</v>
       </c>
       <c r="C382">
-        <v>0.00254785998707013</v>
+        <v>0.0263666979386131</v>
       </c>
       <c r="D382">
-        <v>0.03524973499413468</v>
+        <v>0.364784218804456</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>0.09141683617972741</v>
+        <v>0.818402925218647</v>
       </c>
       <c r="B383">
-        <v>0.2203029782613512</v>
+        <v>1.97224722904436</v>
       </c>
       <c r="C383">
-        <v>0.00254785998707013</v>
+        <v>0.0228095409292686</v>
       </c>
       <c r="D383">
-        <v>0.03524973499413468</v>
+        <v>0.315570823033792</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>0.09141683617972741</v>
+        <v>0.701163187621758</v>
       </c>
       <c r="B384">
-        <v>0.2203029782613512</v>
+        <v>1.68971433420216</v>
       </c>
       <c r="C384">
-        <v>0.00254785998707013</v>
+        <v>0.0195419761261021</v>
       </c>
       <c r="D384">
-        <v>0.03524973499413468</v>
+        <v>0.270363945900708</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>0.09141683617972741</v>
+        <v>0.582643033225871</v>
       </c>
       <c r="B385">
-        <v>0.2203029782613512</v>
+        <v>1.40409579730513</v>
       </c>
       <c r="C385">
-        <v>0.00254785998707013</v>
+        <v>0.0162387250876067</v>
       </c>
       <c r="D385">
-        <v>0.03524973499413468</v>
+        <v>0.22466334841224</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>0.09141683617972741</v>
+        <v>0.558693848470211</v>
       </c>
       <c r="B386">
-        <v>0.2203029782613512</v>
+        <v>1.34638130018306</v>
       </c>
       <c r="C386">
-        <v>0.00254785998707013</v>
+        <v>0.0155712422462411</v>
       </c>
       <c r="D386">
-        <v>0.03524973499413468</v>
+        <v>0.215428699180857</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>0.09141683617972741</v>
+        <v>0.48493125283574</v>
       </c>
       <c r="B387">
-        <v>0.2203029782613512</v>
+        <v>1.168622802059</v>
       </c>
       <c r="C387">
-        <v>0.00254785998707013</v>
+        <v>0.0135154199949655</v>
       </c>
       <c r="D387">
-        <v>0.03524973499413468</v>
+        <v>0.1869863240424</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>0.09141683617972741</v>
+        <v>0.349892321825799</v>
       </c>
       <c r="B388">
-        <v>0.2203029782613512</v>
+        <v>0.843196109056512</v>
       </c>
       <c r="C388">
-        <v>0.00254785998707013</v>
+        <v>0.00975177750420456</v>
       </c>
       <c r="D388">
-        <v>0.03524973499413468</v>
+        <v>0.134916194174493</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>0.09141683617972741</v>
+        <v>0.378979329823735</v>
       </c>
       <c r="B389">
-        <v>0.2203029782613512</v>
+        <v>0.913292108419899</v>
       </c>
       <c r="C389">
-        <v>0.00254785998707013</v>
+        <v>0.0105624555687552</v>
       </c>
       <c r="D389">
-        <v>0.03524973499413468</v>
+        <v>0.146131954493344</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>0.09141683617972741</v>
+        <v>0.43250794477335</v>
       </c>
       <c r="B390">
-        <v>0.2203029782613512</v>
+        <v>1.0422892799302</v>
       </c>
       <c r="C390">
-        <v>0.00254785998707013</v>
+        <v>0.0120543406732154</v>
       </c>
       <c r="D390">
-        <v>0.03524973499413468</v>
+        <v>0.166772238826389</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>0.09141683617972741</v>
+        <v>0.346002007843223</v>
       </c>
       <c r="B391">
-        <v>0.2203029782613512</v>
+        <v>0.833820945874881</v>
       </c>
       <c r="C391">
-        <v>0.00254785998707013</v>
+        <v>0.00964335135703557</v>
       </c>
       <c r="D391">
-        <v>0.03524973499413468</v>
+        <v>0.133416114510172</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>0.09141683617972741</v>
+        <v>0.282892602225142</v>
       </c>
       <c r="B392">
-        <v>0.2203029782613512</v>
+        <v>0.68173528425088</v>
       </c>
       <c r="C392">
-        <v>0.00254785998707013</v>
+        <v>0.00788444199086628</v>
       </c>
       <c r="D392">
-        <v>0.03524973499413468</v>
+        <v>0.109081539866819</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>0.09141683617972741</v>
+        <v>0.312532263666691</v>
       </c>
       <c r="B393">
-        <v>0.2203029782613512</v>
+        <v>0.753163108305015</v>
       </c>
       <c r="C393">
-        <v>0.00254785998707013</v>
+        <v>0.00871052294677201</v>
       </c>
       <c r="D393">
-        <v>0.03524973499413468</v>
+        <v>0.120510399744188</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>0.09141683617972741</v>
+        <v>0.403683601643074</v>
       </c>
       <c r="B394">
-        <v>0.2203029782613512</v>
+        <v>0.972826269576805</v>
       </c>
       <c r="C394">
-        <v>0.00254785998707013</v>
+        <v>0.0112509832875931</v>
       </c>
       <c r="D394">
-        <v>0.03524973499413468</v>
+        <v>0.155657760365063</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>0.09141683617972741</v>
+        <v>0.576372579388076</v>
       </c>
       <c r="B395">
-        <v>0.2203029782613512</v>
+        <v>1.38898479901155</v>
       </c>
       <c r="C395">
-        <v>0.00254785998707013</v>
+        <v>0.0160639625482132</v>
       </c>
       <c r="D395">
-        <v>0.03524973499413468</v>
+        <v>0.222245502364268</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>0.09141683617972741</v>
+        <v>0.71181637763815</v>
       </c>
       <c r="B396">
-        <v>0.2203029782613512</v>
+        <v>1.71538717070222</v>
       </c>
       <c r="C396">
-        <v>0.00254785998707013</v>
+        <v>0.0198388890112085</v>
       </c>
       <c r="D396">
-        <v>0.03524973499413468</v>
+        <v>0.274471746395812</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>0.09141683617972741</v>
+        <v>0.873408806756321</v>
       </c>
       <c r="B397">
-        <v>0.2203029782613512</v>
+        <v>2.10480442562921</v>
       </c>
       <c r="C397">
-        <v>0.00254785998707013</v>
+        <v>0.0243425986293604</v>
       </c>
       <c r="D397">
-        <v>0.03524973499413468</v>
+        <v>0.336780731715271</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>0.09141683617972741</v>
+        <v>0.953961602132901</v>
       </c>
       <c r="B398">
-        <v>0.2203029782613512</v>
+        <v>2.29892644374246</v>
       </c>
       <c r="C398">
-        <v>0.00254785998707013</v>
+        <v>0.0265876691520717</v>
       </c>
       <c r="D398">
-        <v>0.03524973499413468</v>
+        <v>0.36784136352798</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>0.09141683617972741</v>
+        <v>1.06583375915915</v>
       </c>
       <c r="B399">
-        <v>0.2203029782613512</v>
+        <v>2.56852415032849</v>
       </c>
       <c r="C399">
-        <v>0.00254785998707013</v>
+        <v>0.0297056352124376</v>
       </c>
       <c r="D399">
-        <v>0.03524973499413468</v>
+        <v>0.410978536648309</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>0.09141683617972741</v>
+        <v>1.17143546234761</v>
       </c>
       <c r="B400">
-        <v>0.2203029782613512</v>
+        <v>2.82301085862094</v>
       </c>
       <c r="C400">
-        <v>0.00254785998707013</v>
+        <v>0.03264883873341</v>
       </c>
       <c r="D400">
-        <v>0.03524973499413468</v>
+        <v>0.451697863720666</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>0.09141683617972741</v>
+        <v>1.18781203658919</v>
       </c>
       <c r="B401">
-        <v>0.2203029782613512</v>
+        <v>2.8624763250482</v>
       </c>
       <c r="C401">
-        <v>0.00254785998707013</v>
+        <v>0.0331052668923694</v>
       </c>
       <c r="D401">
-        <v>0.03524973499413468</v>
+        <v>0.458012563793993</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>0.09141683617972741</v>
+        <v>1.26218193308386</v>
       </c>
       <c r="B402">
-        <v>0.2203029782613512</v>
+        <v>3.04169834120454</v>
       </c>
       <c r="C402">
-        <v>0.00254785998707013</v>
+        <v>0.0351780151019966</v>
       </c>
       <c r="D402">
-        <v>0.03524973499413468</v>
+        <v>0.486689110177904</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>0.09141683617972741</v>
+        <v>1.18646081632733</v>
       </c>
       <c r="B403">
-        <v>0.2203029782613512</v>
+        <v>2.85922005562984</v>
       </c>
       <c r="C403">
-        <v>0.00254785998707013</v>
+        <v>0.0330676073081746</v>
       </c>
       <c r="D403">
-        <v>0.03524973499413468</v>
+        <v>0.457491542085739</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>0.09141683617972741</v>
+        <v>1.09200472535128</v>
       </c>
       <c r="B404">
-        <v>0.2203029782613512</v>
+        <v>2.6315928588623</v>
       </c>
       <c r="C404">
-        <v>0.00254785998707013</v>
+        <v>0.0304350408708524</v>
       </c>
       <c r="D404">
-        <v>0.03524973499413468</v>
+        <v>0.421069890291297</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>0.09141683617972741</v>
+        <v>0.990927960713888</v>
       </c>
       <c r="B405">
-        <v>0.2203029782613512</v>
+        <v>2.38801067845452</v>
       </c>
       <c r="C405">
-        <v>0.00254785998707013</v>
+        <v>0.027617950988899</v>
       </c>
       <c r="D405">
-        <v>0.03524973499413468</v>
+        <v>0.382095349972185</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>0.09141683617972741</v>
+        <v>0.895831661338342</v>
       </c>
       <c r="B406">
-        <v>0.2203029782613512</v>
+        <v>2.15884066065958</v>
       </c>
       <c r="C406">
-        <v>0.00254785998707013</v>
+        <v>0.0249675414339123</v>
       </c>
       <c r="D406">
-        <v>0.03524973499413468</v>
+        <v>0.345426838000052</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>0.09141683617972741</v>
+        <v>0.62331342821565</v>
       </c>
       <c r="B407">
-        <v>0.2203029782613512</v>
+        <v>1.50210628987675</v>
       </c>
       <c r="C407">
-        <v>0.00254785998707013</v>
+        <v>0.0173722413673549</v>
       </c>
       <c r="D407">
-        <v>0.03524973499413468</v>
+        <v>0.24034558710488</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>0.09141683617972741</v>
+        <v>0.541392661084186</v>
       </c>
       <c r="B408">
-        <v>0.2203029782613512</v>
+        <v>1.304687633372</v>
       </c>
       <c r="C408">
-        <v>0.00254785998707013</v>
+        <v>0.0150890443830051</v>
       </c>
       <c r="D408">
-        <v>0.03524973499413468</v>
+        <v>0.208757474317613</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>0.09141683617972741</v>
+        <v>0.43631070380004</v>
       </c>
       <c r="B409">
-        <v>0.2203029782613512</v>
+        <v>1.05145344677517</v>
       </c>
       <c r="C409">
-        <v>0.00254785998707013</v>
+        <v>0.0121603265940749</v>
       </c>
       <c r="D409">
-        <v>0.03524973499413468</v>
+        <v>0.168238557871536</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>0.09141683617972741</v>
+        <v>0.403946266510734</v>
       </c>
       <c r="B410">
-        <v>0.2203029782613512</v>
+        <v>0.973459258586797</v>
       </c>
       <c r="C410">
-        <v>0.00254785998707013</v>
+        <v>0.0112583039665214</v>
       </c>
       <c r="D410">
-        <v>0.03524973499413468</v>
+        <v>0.155759042222587</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>0.09141683617972741</v>
+        <v>0.297031238983977</v>
       </c>
       <c r="B411">
-        <v>0.2203029782613512</v>
+        <v>0.715807605244389</v>
       </c>
       <c r="C411">
-        <v>0.00254785998707013</v>
+        <v>0.00827849705090721</v>
       </c>
       <c r="D411">
-        <v>0.03524973499413468</v>
+        <v>0.114533305862608</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>0.09141683617972741</v>
+        <v>0.250117713864697</v>
       </c>
       <c r="B412">
-        <v>0.2203029782613512</v>
+        <v>0.602751961049954</v>
       </c>
       <c r="C412">
-        <v>0.00254785998707013</v>
+        <v>0.00697097976526381</v>
       </c>
       <c r="D412">
-        <v>0.03524973499413468</v>
+        <v>0.096443756965465</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413">
-        <v>0.09141683617972741</v>
+        <v>0.178155280933537</v>
       </c>
       <c r="B413">
-        <v>0.2203029782613512</v>
+        <v>0.42933162667633</v>
       </c>
       <c r="C413">
-        <v>0.00254785998707013</v>
+        <v>0.00496532948135933</v>
       </c>
       <c r="D413">
-        <v>0.03524973499413468</v>
+        <v>0.0686955128086726</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>0.09141683617972741</v>
+        <v>0.160766538591625</v>
       </c>
       <c r="B414">
-        <v>0.2203029782613512</v>
+        <v>0.387426963528602</v>
       </c>
       <c r="C414">
-        <v>0.00254785998707013</v>
+        <v>0.00448069139181391</v>
       </c>
       <c r="D414">
-        <v>0.03524973499413468</v>
+        <v>0.0619905273262543</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>0.09141683617972741</v>
+        <v>0.137107342411918</v>
       </c>
       <c r="B415">
-        <v>0.2203029782613512</v>
+        <v>0.330411302087292</v>
       </c>
       <c r="C415">
-        <v>0.00254785998707013</v>
+        <v>0.003821290762875</v>
       </c>
       <c r="D415">
-        <v>0.03524973499413468</v>
+        <v>0.0528676957958644</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>0.09141683617972741</v>
+        <v>0.130284235130511</v>
       </c>
       <c r="B416">
-        <v>0.2203029782613512</v>
+        <v>0.313968479102962</v>
       </c>
       <c r="C416">
-        <v>0.00254785998707013</v>
+        <v>0.00363112533212648</v>
       </c>
       <c r="D416">
-        <v>0.03524973499413468</v>
+        <v>0.0502367501893755</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>0.09141683617972741</v>
+        <v>0.162681579959117</v>
       </c>
       <c r="B417">
-        <v>0.2203029782613512</v>
+        <v>0.392041970286467</v>
       </c>
       <c r="C417">
-        <v>0.00254785998707013</v>
+        <v>0.00453406511899283</v>
       </c>
       <c r="D417">
-        <v>0.03524973499413468</v>
+        <v>0.062728954770562</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>0.09141683617972741</v>
+        <v>0.28222507011735</v>
       </c>
       <c r="B418">
-        <v>0.2203029782613512</v>
+        <v>0.680126616552703</v>
       </c>
       <c r="C418">
-        <v>0.00254785998707013</v>
+        <v>0.00786583733970349</v>
       </c>
       <c r="D418">
-        <v>0.03524973499413468</v>
+        <v>0.108824143845658</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>0.09141683617972741</v>
+        <v>0.514488943152408</v>
       </c>
       <c r="B419">
-        <v>0.2203029782613512</v>
+        <v>1.23985308610084</v>
       </c>
       <c r="C419">
-        <v>0.00254785998707013</v>
+        <v>0.0143392163503763</v>
       </c>
       <c r="D419">
-        <v>0.03524973499413468</v>
+        <v>0.198383576389362</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>0.09141683617972741</v>
+        <v>0.812351656493938</v>
       </c>
       <c r="B420">
-        <v>0.2203029782613512</v>
+        <v>1.95766443906799</v>
       </c>
       <c r="C420">
-        <v>0.00254785998707013</v>
+        <v>0.0226408872534361</v>
       </c>
       <c r="D420">
-        <v>0.03524973499413468</v>
+        <v>0.313237493333944</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>0.09141683617972741</v>
+        <v>0.992706383539913</v>
       </c>
       <c r="B421">
-        <v>0.2203029782613512</v>
+        <v>2.39229645185857</v>
       </c>
       <c r="C421">
-        <v>0.00254785998707013</v>
+        <v>0.0276675170485864</v>
       </c>
       <c r="D421">
-        <v>0.03524973499413468</v>
+        <v>0.382781098199149</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>0.09141683617972741</v>
+        <v>1.17657388103663</v>
       </c>
       <c r="B422">
-        <v>0.2203029782613512</v>
+        <v>2.83539379581336</v>
       </c>
       <c r="C422">
-        <v>0.00254785998707013</v>
+        <v>0.0327920505521696</v>
       </c>
       <c r="D422">
-        <v>0.03524973499413468</v>
+        <v>0.453679204408508</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>0.09141683617972741</v>
+        <v>1.29100128782987</v>
       </c>
       <c r="B423">
-        <v>0.2203029782613512</v>
+        <v>3.11114933018467</v>
       </c>
       <c r="C423">
-        <v>0.00254785998707013</v>
+        <v>0.0359812334573789</v>
       </c>
       <c r="D423">
-        <v>0.03524973499413468</v>
+        <v>0.497801665150836</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>0.09141683617972741</v>
+        <v>1.3531475889332</v>
       </c>
       <c r="B424">
-        <v>0.2203029782613512</v>
+        <v>3.26091403210536</v>
       </c>
       <c r="C424">
-        <v>0.00254785998707013</v>
+        <v>0.0377133003341442</v>
       </c>
       <c r="D424">
-        <v>0.03524973499413468</v>
+        <v>0.521764872983266</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>0.09141683617972741</v>
+        <v>1.38260655663197</v>
       </c>
       <c r="B425">
-        <v>0.2203029782613512</v>
+        <v>3.33190640716179</v>
       </c>
       <c r="C425">
-        <v>0.00254785998707013</v>
+        <v>0.0385343452116164</v>
       </c>
       <c r="D425">
-        <v>0.03524973499413468</v>
+        <v>0.533124058533517</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>0.09141683617972741</v>
+        <v>1.42582661755773</v>
       </c>
       <c r="B426">
-        <v>0.2203029782613512</v>
+        <v>3.43606127119432</v>
       </c>
       <c r="C426">
-        <v>0.00254785998707013</v>
+        <v>0.0397389227103935</v>
       </c>
       <c r="D426">
-        <v>0.03524973499413468</v>
+        <v>0.549789431759388</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>0.09141683617972741</v>
+        <v>1.39952461665515</v>
       </c>
       <c r="B427">
-        <v>0.2203029782613512</v>
+        <v>3.37267678563106</v>
       </c>
       <c r="C427">
-        <v>0.00254785998707013</v>
+        <v>0.0390058650103017</v>
       </c>
       <c r="D427">
-        <v>0.03524973499413468</v>
+        <v>0.539647551987824</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>0.09141683617972741</v>
+        <v>1.32617247209181</v>
       </c>
       <c r="B428">
-        <v>0.2203029782613512</v>
+        <v>3.19590742251956</v>
       </c>
       <c r="C428">
-        <v>0.00254785998707013</v>
+        <v>0.036961482357075</v>
       </c>
       <c r="D428">
-        <v>0.03524973499413468</v>
+        <v>0.511363444101772</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>0.09141683617972741</v>
+        <v>1.26596853606427</v>
       </c>
       <c r="B429">
-        <v>0.2203029782613512</v>
+        <v>3.05082357402749</v>
       </c>
       <c r="C429">
-        <v>0.00254785998707013</v>
+        <v>0.035283550740987</v>
       </c>
       <c r="D429">
-        <v>0.03524973499413468</v>
+        <v>0.488149199557119</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430">
-        <v>0.09141683617972741</v>
+        <v>1.10730331641392</v>
       </c>
       <c r="B430">
-        <v>0.2203029782613512</v>
+        <v>2.66846052257883</v>
       </c>
       <c r="C430">
-        <v>0.00254785998707013</v>
+        <v>0.0308614247806</v>
       </c>
       <c r="D430">
-        <v>0.03524973499413468</v>
+        <v>0.426968927091059</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431">
-        <v>0.09141683617972741</v>
+        <v>0.864222311112715</v>
       </c>
       <c r="B431">
-        <v>0.2203029782613512</v>
+        <v>2.08266613650605</v>
       </c>
       <c r="C431">
-        <v>0.00254785998707013</v>
+        <v>0.0240865636838311</v>
       </c>
       <c r="D431">
-        <v>0.03524973499413468</v>
+        <v>0.333238478991438</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432">
-        <v>0.09141683617972741</v>
+        <v>0.709731810189891</v>
       </c>
       <c r="B432">
-        <v>0.2203029782613512</v>
+        <v>1.7103636275954</v>
       </c>
       <c r="C432">
-        <v>0.00254785998707013</v>
+        <v>0.0197807904572252</v>
       </c>
       <c r="D432">
-        <v>0.03524973499413468</v>
+        <v>0.273667950801924</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>0.09141683617972741</v>
+        <v>0.596869224940592</v>
       </c>
       <c r="B433">
-        <v>0.2203029782613512</v>
+        <v>1.4383791146353</v>
       </c>
       <c r="C433">
-        <v>0.00254785998707013</v>
+        <v>0.0166352203739571</v>
       </c>
       <c r="D433">
-        <v>0.03524973499413468</v>
+        <v>0.230148875027204</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434">
-        <v>0.09141683617972741</v>
+        <v>0.536982601197296</v>
       </c>
       <c r="B434">
-        <v>0.2203029782613512</v>
+        <v>1.29405994849476</v>
       </c>
       <c r="C434">
-        <v>0.00254785998707013</v>
+        <v>0.014966132503794</v>
       </c>
       <c r="D434">
-        <v>0.03524973499413468</v>
+        <v>0.207056984027012</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435">
-        <v>0.09141683617972741</v>
+        <v>0.455499608845264</v>
       </c>
       <c r="B435">
-        <v>0.2203029782613512</v>
+        <v>1.09769627367333</v>
       </c>
       <c r="C435">
-        <v>0.00254785998707013</v>
+        <v>0.0126951366509915</v>
       </c>
       <c r="D435">
-        <v>0.03524973499413468</v>
+        <v>0.175637674335619</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436">
-        <v>0.09141683617972741</v>
+        <v>0.357147620055633</v>
       </c>
       <c r="B436">
-        <v>0.2203029782613512</v>
+        <v>0.86068045739979</v>
       </c>
       <c r="C436">
-        <v>0.00254785998707013</v>
+        <v>0.0099539884406858</v>
       </c>
       <c r="D436">
-        <v>0.03524973499413468</v>
+        <v>0.137713789788087</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437">
-        <v>0.09141683617972741</v>
+        <v>0.293923335773373</v>
       </c>
       <c r="B437">
-        <v>0.2203029782613512</v>
+        <v>0.708317952768362</v>
       </c>
       <c r="C437">
-        <v>0.00254785998707013</v>
+        <v>0.00819187731470876</v>
       </c>
       <c r="D437">
-        <v>0.03524973499413468</v>
+        <v>0.113334918682091</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>0.09141683617972741</v>
+        <v>0.258768307557709</v>
       </c>
       <c r="B438">
-        <v>0.2203029782613512</v>
+        <v>0.623598794455486</v>
       </c>
       <c r="C438">
-        <v>0.00254785998707013</v>
+        <v>0.00721207869688179</v>
       </c>
       <c r="D438">
-        <v>0.03524973499413468</v>
+        <v>0.0997793693970868</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>0.09141683617972741</v>
+        <v>0.212002568641909</v>
       </c>
       <c r="B439">
-        <v>0.2203029782613512</v>
+        <v>0.510899296263616</v>
       </c>
       <c r="C439">
-        <v>0.00254785998707013</v>
+        <v>0.00590868033035901</v>
       </c>
       <c r="D439">
-        <v>0.03524973499413468</v>
+        <v>0.0817468058948243</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>0.09141683617972741</v>
+        <v>0.200391857941772</v>
       </c>
       <c r="B440">
-        <v>0.2203029782613512</v>
+        <v>0.482918956384622</v>
       </c>
       <c r="C440">
-        <v>0.00254785998707013</v>
+        <v>0.0055850805816632</v>
       </c>
       <c r="D440">
-        <v>0.03524973499413468</v>
+        <v>0.0772697916775662</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>0.09141683617972741</v>
+        <v>0.229943964427434</v>
       </c>
       <c r="B441">
-        <v>0.2203029782613512</v>
+        <v>0.554135784102092</v>
       </c>
       <c r="C441">
-        <v>0.00254785998707013</v>
+        <v>0.00640872131125947</v>
       </c>
       <c r="D441">
-        <v>0.03524973499413468</v>
+        <v>0.0886648909357599</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>0.09141683617972741</v>
+        <v>0.409664066904916</v>
       </c>
       <c r="B442">
-        <v>0.2203029782613512</v>
+        <v>0.98723843218963</v>
       </c>
       <c r="C442">
-        <v>0.00254785998707013</v>
+        <v>0.0114176636145599</v>
       </c>
       <c r="D442">
-        <v>0.03524973499413468</v>
+        <v>0.157963788712041</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>0.09141683617972741</v>
+        <v>0.673389503962121</v>
       </c>
       <c r="B443">
-        <v>0.2203029782613512</v>
+        <v>1.62278327988873</v>
       </c>
       <c r="C443">
-        <v>0.00254785998707013</v>
+        <v>0.0187679014561933</v>
       </c>
       <c r="D443">
-        <v>0.03524973499413468</v>
+        <v>0.259654594869478</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>0.09141683617972741</v>
+        <v>0.873305095754154</v>
       </c>
       <c r="B444">
-        <v>0.2203029782613512</v>
+        <v>2.10455449527053</v>
       </c>
       <c r="C444">
-        <v>0.00254785998707013</v>
+        <v>0.0243397081211818</v>
       </c>
       <c r="D444">
-        <v>0.03524973499413468</v>
+        <v>0.336740741430165</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>0.09141683617972741</v>
+        <v>1.05025634718257</v>
       </c>
       <c r="B445">
-        <v>0.2203029782613512</v>
+        <v>2.53098456357995</v>
       </c>
       <c r="C445">
-        <v>0.00254785998707013</v>
+        <v>0.0292714803418925</v>
       </c>
       <c r="D445">
-        <v>0.03524973499413468</v>
+        <v>0.404971988325091</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>0.09141683617972741</v>
+        <v>1.2208495898173</v>
       </c>
       <c r="B446">
-        <v>0.2203029782613512</v>
+        <v>2.94209263725912</v>
       </c>
       <c r="C446">
-        <v>0.00254785998707013</v>
+        <v>0.0340260497969002</v>
       </c>
       <c r="D446">
-        <v>0.03524973499413468</v>
+        <v>0.470751628552871</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>0.09141683617972741</v>
+        <v>1.31347261055073</v>
       </c>
       <c r="B447">
-        <v>0.2203029782613512</v>
+        <v>3.16530236728108</v>
       </c>
       <c r="C447">
-        <v>0.00254785998707013</v>
+        <v>0.0366075271075383</v>
       </c>
       <c r="D447">
-        <v>0.03524973499413468</v>
+        <v>0.506466460433412</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>0.09141683617972741</v>
+        <v>1.28734571955992</v>
       </c>
       <c r="B448">
-        <v>0.2203029782613512</v>
+        <v>3.10233987439116</v>
       </c>
       <c r="C448">
-        <v>0.00254785998707013</v>
+        <v>0.0358793498600655</v>
       </c>
       <c r="D448">
-        <v>0.03524973499413468</v>
+        <v>0.496392101900197</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>0.09141683617972741</v>
+        <v>1.29454637037317</v>
       </c>
       <c r="B449">
-        <v>0.2203029782613512</v>
+        <v>3.11969252939291</v>
       </c>
       <c r="C449">
-        <v>0.00254785998707013</v>
+        <v>0.0360800377295501</v>
       </c>
       <c r="D449">
-        <v>0.03524973499413468</v>
+        <v>0.499168625826853</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>0.09141683617972741</v>
+        <v>1.27849269224684</v>
       </c>
       <c r="B450">
-        <v>0.2203029782613512</v>
+        <v>3.08100520164154</v>
       </c>
       <c r="C450">
-        <v>0.00254785998707013</v>
+        <v>0.0356326089423303</v>
       </c>
       <c r="D450">
-        <v>0.03524973499413468</v>
+        <v>0.492978432386757</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>0.09141683617972741</v>
+        <v>1.2968389552725</v>
       </c>
       <c r="B451">
-        <v>0.2203029782613512</v>
+        <v>3.1252173681682</v>
       </c>
       <c r="C451">
-        <v>0.00254785998707013</v>
+        <v>0.0361439338954651</v>
       </c>
       <c r="D451">
-        <v>0.03524973499413468</v>
+        <v>0.500052631591329</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>0.09141683617972741</v>
+        <v>1.26850703433824</v>
       </c>
       <c r="B452">
-        <v>0.2203029782613512</v>
+        <v>3.05694103283965</v>
       </c>
       <c r="C452">
-        <v>0.00254785998707013</v>
+        <v>0.0353543007083867</v>
       </c>
       <c r="D452">
-        <v>0.03524973499413468</v>
+        <v>0.489128027912813</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>0.09141683617972741</v>
+        <v>1.23768009488459</v>
       </c>
       <c r="B453">
-        <v>0.2203029782613512</v>
+        <v>2.98265201939173</v>
       </c>
       <c r="C453">
-        <v>0.00254785998707013</v>
+        <v>0.034495129369276</v>
       </c>
       <c r="D453">
-        <v>0.03524973499413468</v>
+        <v>0.477241361388004</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454">
-        <v>0.09141683617972741</v>
+        <v>1.10336892723004</v>
       </c>
       <c r="B454">
-        <v>0.2203029782613512</v>
+        <v>2.65897914375332</v>
       </c>
       <c r="C454">
-        <v>0.00254785998707013</v>
+        <v>0.0307517702224891</v>
       </c>
       <c r="D454">
-        <v>0.03524973499413468</v>
+        <v>0.425451852316963</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455">
-        <v>0.09141683617972741</v>
+        <v>0.945984124378687</v>
       </c>
       <c r="B455">
-        <v>0.2203029782613512</v>
+        <v>2.27970173435948</v>
       </c>
       <c r="C455">
-        <v>0.00254785998707013</v>
+        <v>0.0263653304974311</v>
       </c>
       <c r="D455">
-        <v>0.03524973499413468</v>
+        <v>0.364765300206287</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456">
-        <v>0.09141683617972741</v>
+        <v>0.777393478067335</v>
       </c>
       <c r="B456">
-        <v>0.2203029782613512</v>
+        <v>1.87341966377484</v>
       </c>
       <c r="C456">
-        <v>0.00254785998707013</v>
+        <v>0.0216665749959117</v>
       </c>
       <c r="D456">
-        <v>0.03524973499413468</v>
+        <v>0.29975784804199</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457">
-        <v>0.09141683617972741</v>
+        <v>0.682992034507874</v>
       </c>
       <c r="B457">
-        <v>0.2203029782613512</v>
+        <v>1.64592416034883</v>
       </c>
       <c r="C457">
-        <v>0.00254785998707013</v>
+        <v>0.0190355316255862</v>
       </c>
       <c r="D457">
-        <v>0.03524973499413468</v>
+        <v>0.263357267934485</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458">
-        <v>0.09141683617972741</v>
+        <v>0.577910077223729</v>
       </c>
       <c r="B458">
-        <v>0.2203029782613512</v>
+        <v>1.39268997375199</v>
       </c>
       <c r="C458">
-        <v>0.00254785998707013</v>
+        <v>0.016106813836656</v>
       </c>
       <c r="D458">
-        <v>0.03524973499413468</v>
+        <v>0.222838351488408</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>0.09141683617972741</v>
+        <v>0.508037795571834</v>
       </c>
       <c r="B459">
-        <v>0.2203029782613512</v>
+        <v>1.22430663880956</v>
       </c>
       <c r="C459">
-        <v>0.00254785998707013</v>
+        <v>0.0141594177325493</v>
       </c>
       <c r="D459">
-        <v>0.03524973499413468</v>
+        <v>0.195896056014273</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460">
-        <v>0.09141683617972741</v>
+        <v>0.533934929234285</v>
       </c>
       <c r="B460">
-        <v>0.2203029782613512</v>
+        <v>1.28671544568463</v>
       </c>
       <c r="C460">
-        <v>0.00254785998707013</v>
+        <v>0.0148811914604067</v>
       </c>
       <c r="D460">
-        <v>0.03524973499413468</v>
+        <v>0.205881821622201</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461">
-        <v>0.09141683617972741</v>
+        <v>0.393435278866816</v>
       </c>
       <c r="B461">
-        <v>0.2203029782613512</v>
+        <v>0.948129111764928</v>
       </c>
       <c r="C461">
-        <v>0.00254785998707013</v>
+        <v>0.0109653543747211</v>
       </c>
       <c r="D461">
-        <v>0.03524973499413468</v>
+        <v>0.151706074033595</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>0.09141683617972741</v>
+        <v>0.321587724599837</v>
       </c>
       <c r="B462">
-        <v>0.2203029782613512</v>
+        <v>0.774985620398731</v>
       </c>
       <c r="C462">
-        <v>0.00254785998707013</v>
+        <v>0.00896290585062441</v>
       </c>
       <c r="D462">
-        <v>0.03524973499413468</v>
+        <v>0.124002126339446</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>0.09141683617972741</v>
+        <v>0.265213871307277</v>
       </c>
       <c r="B463">
-        <v>0.2203029782613512</v>
+        <v>0.639131785422396</v>
       </c>
       <c r="C463">
-        <v>0.00254785998707013</v>
+        <v>0.00739172168889419</v>
       </c>
       <c r="D463">
-        <v>0.03524973499413468</v>
+        <v>0.102264736683408</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>0.09141683617972741</v>
+        <v>0.24611252121794</v>
       </c>
       <c r="B464">
-        <v>0.2203029782613512</v>
+        <v>0.593099954860895</v>
       </c>
       <c r="C464">
-        <v>0.00254785998707013</v>
+        <v>0.00685935185828707</v>
       </c>
       <c r="D464">
-        <v>0.03524973499413468</v>
+        <v>0.0948993808385002</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>0.09141683617972741</v>
+        <v>0.273284487848384</v>
       </c>
       <c r="B465">
-        <v>0.2203029782613512</v>
+        <v>0.658580947466415</v>
       </c>
       <c r="C465">
-        <v>0.00254785998707013</v>
+        <v>0.00761665619565884</v>
       </c>
       <c r="D465">
-        <v>0.03524973499413468</v>
+        <v>0.105376713713044</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>0.09141683617972741</v>
+        <v>0.438778398611145</v>
       </c>
       <c r="B466">
-        <v>0.2203029782613512</v>
+        <v>1.05740027822378</v>
       </c>
       <c r="C466">
-        <v>0.00254785998707013</v>
+        <v>0.0122291032126089</v>
       </c>
       <c r="D466">
-        <v>0.03524973499413468</v>
+        <v>0.169190084874361</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>0.09141683617972741</v>
+        <v>0.6597706131076</v>
       </c>
       <c r="B467">
-        <v>0.2203029782613512</v>
+        <v>1.58996348059084</v>
       </c>
       <c r="C467">
-        <v>0.00254785998707013</v>
+        <v>0.0183883321281946</v>
       </c>
       <c r="D467">
-        <v>0.03524973499413468</v>
+        <v>0.254403239499969</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>0.09141683617972741</v>
+        <v>0.796199255749712</v>
       </c>
       <c r="B468">
-        <v>0.2203029782613512</v>
+        <v>1.91873920233121</v>
       </c>
       <c r="C468">
-        <v>0.00254785998707013</v>
+        <v>0.0221907069882776</v>
       </c>
       <c r="D468">
-        <v>0.03524973499413468</v>
+        <v>0.307009233097136</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>0.09141683617972741</v>
+        <v>0.836716280705005</v>
       </c>
       <c r="B469">
-        <v>0.2203029782613512</v>
+        <v>2.01638009257589</v>
       </c>
       <c r="C469">
-        <v>0.00254785998707013</v>
+        <v>0.0233199487230907</v>
       </c>
       <c r="D469">
-        <v>0.03524973499413468</v>
+        <v>0.322632333306127</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>0.09141683617972741</v>
+        <v>1.00153707552897</v>
       </c>
       <c r="B470">
-        <v>0.2203029782613512</v>
+        <v>2.4135772993107</v>
       </c>
       <c r="C470">
-        <v>0.00254785998707013</v>
+        <v>0.0279136354630633</v>
       </c>
       <c r="D470">
-        <v>0.03524973499413468</v>
+        <v>0.386186155357515</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>0.09141683617972741</v>
+        <v>1.1665932115123</v>
       </c>
       <c r="B471">
-        <v>0.2203029782613512</v>
+        <v>2.81134164838475</v>
       </c>
       <c r="C471">
-        <v>0.00254785998707013</v>
+        <v>0.0325138813484661</v>
       </c>
       <c r="D471">
-        <v>0.03524973499413468</v>
+        <v>0.449830723422959</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>0.09141683617972741</v>
+        <v>1.21451890473191</v>
       </c>
       <c r="B472">
-        <v>0.2203029782613512</v>
+        <v>2.92683648929964</v>
       </c>
       <c r="C472">
-        <v>0.00254785998707013</v>
+        <v>0.0338496085646955</v>
       </c>
       <c r="D472">
-        <v>0.03524973499413468</v>
+        <v>0.468310557729194</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>0.09141683617972741</v>
+        <v>1.22097005231248</v>
       </c>
       <c r="B473">
-        <v>0.2203029782613512</v>
+        <v>2.94238293659092</v>
       </c>
       <c r="C473">
-        <v>0.00254785998707013</v>
+        <v>0.0340294071825225</v>
       </c>
       <c r="D473">
-        <v>0.03524973499413468</v>
+        <v>0.470798078104283</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>0.09141683617972741</v>
+        <v>1.25530976221687</v>
       </c>
       <c r="B474">
-        <v>0.2203029782613512</v>
+        <v>3.02513728120306</v>
       </c>
       <c r="C474">
-        <v>0.00254785998707013</v>
+        <v>0.0349864822300661</v>
       </c>
       <c r="D474">
-        <v>0.03524973499413468</v>
+        <v>0.484039245973246</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>0.09141683617972741</v>
+        <v>1.21542736183007</v>
       </c>
       <c r="B475">
-        <v>0.2203029782613512</v>
+        <v>2.92902575566142</v>
       </c>
       <c r="C475">
-        <v>0.00254785998707013</v>
+        <v>0.033874927987103</v>
       </c>
       <c r="D475">
-        <v>0.03524973499413468</v>
+        <v>0.468660852853179</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>0.09141683617972741</v>
+        <v>1.1018096895171</v>
       </c>
       <c r="B476">
-        <v>0.2203029782613512</v>
+        <v>2.65522157866648</v>
       </c>
       <c r="C476">
-        <v>0.00254785998707013</v>
+        <v>0.0307083130263625</v>
       </c>
       <c r="D476">
-        <v>0.03524973499413468</v>
+        <v>0.424850620438123</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>0.09141683617972741</v>
+        <v>0.979656302175286</v>
       </c>
       <c r="B477">
-        <v>0.2203029782613512</v>
+        <v>2.36084741127344</v>
       </c>
       <c r="C477">
-        <v>0.00254785998707013</v>
+        <v>0.0273038008938119</v>
       </c>
       <c r="D477">
-        <v>0.03524973499413468</v>
+        <v>0.377749072054089</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478">
-        <v>0.09141683617972741</v>
+        <v>0.818517803882827</v>
       </c>
       <c r="B478">
-        <v>0.2203029782613512</v>
+        <v>1.97252407205179</v>
       </c>
       <c r="C478">
-        <v>0.00254785998707013</v>
+        <v>0.0228127426890764</v>
       </c>
       <c r="D478">
-        <v>0.03524973499413468</v>
+        <v>0.315615119496436</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479">
-        <v>0.09141683617972741</v>
+        <v>0.549255260174219</v>
       </c>
       <c r="B479">
-        <v>0.2203029782613512</v>
+        <v>1.32363549974755</v>
       </c>
       <c r="C479">
-        <v>0.00254785998707013</v>
+        <v>0.015308181277838</v>
       </c>
       <c r="D479">
-        <v>0.03524973499413468</v>
+        <v>0.211789241176662</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480">
-        <v>0.09141683617972741</v>
+        <v>0.534881282256018</v>
       </c>
       <c r="B480">
-        <v>0.2203029782613512</v>
+        <v>1.28899603641482</v>
       </c>
       <c r="C480">
-        <v>0.00254785998707013</v>
+        <v>0.014907567072367</v>
       </c>
       <c r="D480">
-        <v>0.03524973499413468</v>
+        <v>0.206246729166818</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481">
-        <v>0.09141683617972741</v>
+        <v>0.442373140186762</v>
       </c>
       <c r="B481">
-        <v>0.2203029782613512</v>
+        <v>1.06606314940028</v>
       </c>
       <c r="C481">
-        <v>0.00254785998707013</v>
+        <v>0.0123292915215366</v>
       </c>
       <c r="D481">
-        <v>0.03524973499413468</v>
+        <v>0.170576193748921</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482">
-        <v>0.09141683617972741</v>
+        <v>0.400893010716717</v>
       </c>
       <c r="B482">
-        <v>0.2203029782613512</v>
+        <v>0.966101299452298</v>
       </c>
       <c r="C482">
-        <v>0.00254785998707013</v>
+        <v>0.0111732072973196</v>
       </c>
       <c r="D482">
-        <v>0.03524973499413468</v>
+        <v>0.154581726729007</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483">
-        <v>0.09141683617972741</v>
+        <v>0.347917049210714</v>
       </c>
       <c r="B483">
-        <v>0.2203029782613512</v>
+        <v>0.838435952632746</v>
       </c>
       <c r="C483">
-        <v>0.00254785998707013</v>
+        <v>0.00969672508421448</v>
       </c>
       <c r="D483">
-        <v>0.03524973499413468</v>
+        <v>0.134154541954479</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484">
-        <v>0.09141683617972741</v>
+        <v>0.294300879305213</v>
       </c>
       <c r="B484">
-        <v>0.2203029782613512</v>
+        <v>0.709227784785782</v>
       </c>
       <c r="C484">
-        <v>0.00254785998707013</v>
+        <v>0.00820239975344488</v>
       </c>
       <c r="D484">
-        <v>0.03524973499413468</v>
+        <v>0.113480497002259</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485">
-        <v>0.09141683617972741</v>
+        <v>0.248377782408978</v>
       </c>
       <c r="B485">
-        <v>0.2203029782613512</v>
+        <v>0.598558946965417</v>
       </c>
       <c r="C485">
-        <v>0.00254785998707013</v>
+        <v>0.00692248649070381</v>
       </c>
       <c r="D485">
-        <v>0.03524973499413468</v>
+        <v>0.0957728507595068</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>0.09141683617972741</v>
+        <v>0.176065129654272</v>
       </c>
       <c r="B486">
-        <v>0.2203029782613512</v>
+        <v>0.424294627245136</v>
       </c>
       <c r="C486">
-        <v>0.00254785998707013</v>
+        <v>0.0049070753015615</v>
       </c>
       <c r="D486">
-        <v>0.03524973499413468</v>
+        <v>0.0678895641260154</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>0.09141683617972741</v>
+        <v>0.147558098808243</v>
       </c>
       <c r="B487">
-        <v>0.2203029782613512</v>
+        <v>0.355596299243262</v>
       </c>
       <c r="C487">
-        <v>0.00254785998707013</v>
+        <v>0.00411256166186414</v>
       </c>
       <c r="D487">
-        <v>0.03524973499413468</v>
+        <v>0.0568974392091503</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>0.09141683617972741</v>
+        <v>0.20277199779699</v>
       </c>
       <c r="B488">
-        <v>0.2203029782613512</v>
+        <v>0.488654791496572</v>
       </c>
       <c r="C488">
-        <v>0.00254785998707013</v>
+        <v>0.0056514169738877</v>
       </c>
       <c r="D488">
-        <v>0.03524973499413468</v>
+        <v>0.0781875580612164</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>0.09141683617972741</v>
+        <v>0.285562730656313</v>
       </c>
       <c r="B489">
-        <v>0.2203029782613512</v>
+        <v>0.688169955043586</v>
       </c>
       <c r="C489">
-        <v>0.00254785998707013</v>
+        <v>0.00795886059551744</v>
       </c>
       <c r="D489">
-        <v>0.03524973499413468</v>
+        <v>0.110111123951462</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>0.09141683617972741</v>
+        <v>0.400893010716717</v>
       </c>
       <c r="B490">
-        <v>0.2203029782613512</v>
+        <v>0.966101299452298</v>
       </c>
       <c r="C490">
-        <v>0.00254785998707013</v>
+        <v>0.0111732072973196</v>
       </c>
       <c r="D490">
-        <v>0.03524973499413468</v>
+        <v>0.154581726729007</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>0.09141683617972741</v>
+        <v>0.548587728066426</v>
       </c>
       <c r="B491">
-        <v>0.2203029782613512</v>
+        <v>1.32202683204938</v>
       </c>
       <c r="C491">
-        <v>0.00254785998707013</v>
+        <v>0.0152895766266752</v>
       </c>
       <c r="D491">
-        <v>0.03524973499413468</v>
+        <v>0.211531845155501</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>0.09141683617972741</v>
+        <v>0.72322465471822</v>
       </c>
       <c r="B492">
-        <v>0.2203029782613512</v>
+        <v>1.74287967123712</v>
       </c>
       <c r="C492">
-        <v>0.00254785998707013</v>
+        <v>0.0201568467737871</v>
       </c>
       <c r="D492">
-        <v>0.03524973499413468</v>
+        <v>0.278870703531252</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>0.09141683617972741</v>
+        <v>0.799077401631956</v>
       </c>
       <c r="B493">
-        <v>0.2203029782613512</v>
+        <v>1.92567516879238</v>
       </c>
       <c r="C493">
-        <v>0.00254785998707013</v>
+        <v>0.0222709232048606</v>
       </c>
       <c r="D493">
-        <v>0.03524973499413468</v>
+        <v>0.308119027352366</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>0.09141683617972741</v>
+        <v>0.919983279714068</v>
       </c>
       <c r="B494">
-        <v>0.2203029782613512</v>
+        <v>2.21704299712573</v>
       </c>
       <c r="C494">
-        <v>0.00254785998707013</v>
+        <v>0.0256406662613951</v>
       </c>
       <c r="D494">
-        <v>0.03524973499413468</v>
+        <v>0.354739544313253</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>0.09141683617972741</v>
+        <v>0.998938346007402</v>
       </c>
       <c r="B495">
-        <v>0.2203029782613512</v>
+        <v>2.40731469083264</v>
       </c>
       <c r="C495">
-        <v>0.00254785998707013</v>
+        <v>0.0278412068028525</v>
       </c>
       <c r="D495">
-        <v>0.03524973499413468</v>
+        <v>0.385184102226115</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>0.09141683617972741</v>
+        <v>0.97405896427629</v>
       </c>
       <c r="B496">
-        <v>0.2203029782613512</v>
+        <v>2.34735853700241</v>
       </c>
       <c r="C496">
-        <v>0.00254785998707013</v>
+        <v>0.0271477986313957</v>
       </c>
       <c r="D496">
-        <v>0.03524973499413468</v>
+        <v>0.375590775116047</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>0.09141683617972741</v>
+        <v>1.00694873130092</v>
       </c>
       <c r="B497">
-        <v>0.2203029782613512</v>
+        <v>2.42661870321076</v>
       </c>
       <c r="C497">
-        <v>0.00254785998707013</v>
+        <v>0.028064462616806</v>
       </c>
       <c r="D497">
-        <v>0.03524973499413468</v>
+        <v>0.388272854480045</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>0.09141683617972741</v>
+        <v>1.01967033271928</v>
       </c>
       <c r="B498">
-        <v>0.2203029782613512</v>
+        <v>2.45727614879563</v>
       </c>
       <c r="C498">
-        <v>0.00254785998707013</v>
+        <v>0.0284190237740264</v>
       </c>
       <c r="D498">
-        <v>0.03524973499413468</v>
+        <v>0.393178220903106</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>0.09141683617972741</v>
+        <v>1.06585609448318</v>
       </c>
       <c r="B499">
-        <v>0.2203029782613512</v>
+        <v>2.56857797562598</v>
       </c>
       <c r="C499">
-        <v>0.00254785998707013</v>
+        <v>0.0297062577156958</v>
       </c>
       <c r="D499">
-        <v>0.03524973499413468</v>
+        <v>0.410987149003382</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>0.09141683617972741</v>
+        <v>1.03081594493169</v>
       </c>
       <c r="B500">
-        <v>0.2203029782613512</v>
+        <v>2.48413566032053</v>
       </c>
       <c r="C500">
-        <v>0.00254785998707013</v>
+        <v>0.0287296608576766</v>
       </c>
       <c r="D500">
-        <v>0.03524973499413468</v>
+        <v>0.397475896181021</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>0.09141683617972741</v>
+        <v>1.01066951920273</v>
       </c>
       <c r="B501">
-        <v>0.2203029782613512</v>
+        <v>2.43558533004344</v>
       </c>
       <c r="C501">
-        <v>0.00254785998707013</v>
+        <v>0.0281681639371706</v>
       </c>
       <c r="D501">
-        <v>0.03524973499413468</v>
+        <v>0.389707565994785</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502">
-        <v>0.09141683617972741</v>
+        <v>0.840388005021235</v>
       </c>
       <c r="B502">
-        <v>0.2203029782613512</v>
+        <v>2.02522848239141</v>
       </c>
       <c r="C502">
-        <v>0.00254785998707013</v>
+        <v>0.0234222826022733</v>
       </c>
       <c r="D502">
-        <v>0.03524973499413468</v>
+        <v>0.324048126222698</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
-        <v>0.09141683617972741</v>
+        <v>0.717134894623205</v>
       </c>
       <c r="B503">
-        <v>0.2203029782613512</v>
+        <v>1.72820412194124</v>
       </c>
       <c r="C503">
-        <v>0.00254785998707013</v>
+        <v>0.0199871203128271</v>
       </c>
       <c r="D503">
-        <v>0.03524973499413468</v>
+        <v>0.276522531810399</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
-        <v>0.09141683617972741</v>
+        <v>0.527516689193011</v>
       </c>
       <c r="B504">
-        <v>0.2203029782613512</v>
+        <v>1.27124830138848</v>
       </c>
       <c r="C504">
-        <v>0.00254785998707013</v>
+        <v>0.0147023100018926</v>
       </c>
       <c r="D504">
-        <v>0.03524973499413468</v>
+        <v>0.203406990179349</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
-        <v>0.09141683617972741</v>
+        <v>0.447396084764858</v>
       </c>
       <c r="B505">
-        <v>0.2203029782613512</v>
+        <v>1.07816780863418</v>
       </c>
       <c r="C505">
-        <v>0.00254785998707013</v>
+        <v>0.012469284984914</v>
       </c>
       <c r="D505">
-        <v>0.03524973499413468</v>
+        <v>0.172513008373746</v>
       </c>
     </row>
   </sheetData>
